--- a/data/IN/undergrad/people_2013-2014.xlsx
+++ b/data/IN/undergrad/people_2013-2014.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18625"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wscho\Desktop\Test\forge-1.0\data\IN\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wscho\Desktop\forge.git\trunk\data\IN\undergrad\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="0" yWindow="0" windowWidth="28800" windowHeight="10500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="people" sheetId="1" r:id="rId1"/>
@@ -327,9 +327,6 @@
     <t>district</t>
   </si>
   <si>
-    <t>party</t>
-  </si>
-  <si>
     <t>Candelaria Reardon</t>
   </si>
   <si>
@@ -421,6 +418,9 @@
   </si>
   <si>
     <t>rural_district</t>
+  </si>
+  <si>
+    <t>party_id</t>
   </si>
 </sst>
 </file>
@@ -1270,7 +1270,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AH101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1292,97 +1294,97 @@
         <v>101</v>
       </c>
       <c r="D1" t="s">
-        <v>102</v>
+        <v>133</v>
       </c>
       <c r="E1" t="s">
+        <v>103</v>
+      </c>
+      <c r="F1" t="s">
         <v>104</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>105</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>106</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>107</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>108</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>109</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>110</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>111</v>
       </c>
-      <c r="M1" t="s">
+      <c r="N1" t="s">
         <v>112</v>
       </c>
-      <c r="N1" t="s">
+      <c r="O1" t="s">
         <v>113</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>114</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>115</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>116</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>117</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>118</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>119</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>120</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>121</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>122</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>123</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
         <v>124</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>125</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>126</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>127</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>128</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>129</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>130</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" s="1" t="s">
         <v>131</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AH1" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -1699,19 +1701,19 @@
     </row>
     <row r="5" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>5493</v>
+        <v>5494</v>
       </c>
       <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
         <v>6</v>
       </c>
-      <c r="C5">
-        <v>4</v>
-      </c>
       <c r="D5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -1726,13 +1728,13 @@
         <v>0</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K5">
         <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M5">
         <v>0</v>
@@ -1747,7 +1749,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="R5">
         <v>0</v>
@@ -1756,66 +1758,66 @@
         <v>0</v>
       </c>
       <c r="T5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U5">
         <v>0</v>
       </c>
       <c r="V5">
+        <v>0</v>
+      </c>
+      <c r="W5">
+        <v>0</v>
+      </c>
+      <c r="X5">
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <v>0</v>
+      </c>
+      <c r="Z5">
+        <v>0</v>
+      </c>
+      <c r="AA5">
+        <v>0</v>
+      </c>
+      <c r="AB5">
+        <v>0</v>
+      </c>
+      <c r="AC5">
+        <v>0</v>
+      </c>
+      <c r="AD5">
+        <v>0</v>
+      </c>
+      <c r="AE5">
         <v>2</v>
       </c>
-      <c r="W5">
-        <v>0</v>
-      </c>
-      <c r="X5">
-        <v>0</v>
-      </c>
-      <c r="Y5">
-        <v>0</v>
-      </c>
-      <c r="Z5">
-        <v>0</v>
-      </c>
-      <c r="AA5">
-        <v>1</v>
-      </c>
-      <c r="AB5">
-        <v>1</v>
-      </c>
-      <c r="AC5">
-        <v>0</v>
-      </c>
-      <c r="AD5">
-        <v>15</v>
-      </c>
-      <c r="AE5">
-        <v>4</v>
-      </c>
       <c r="AF5">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="AG5" s="2">
-        <v>560.43785554214787</v>
+        <v>3803.3333333333335</v>
       </c>
       <c r="AH5" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>14189</v>
+        <v>5489</v>
       </c>
       <c r="B6" t="s">
-        <v>77</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="D6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E6">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>0</v>
@@ -1827,19 +1829,19 @@
         <v>0</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1881,149 +1883,149 @@
         <v>0</v>
       </c>
       <c r="AA6">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB6">
         <v>0</v>
       </c>
       <c r="AC6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD6">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="AE6">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF6">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AG6" s="2">
-        <v>1570.0744416873449</v>
+        <v>228.22277210942002</v>
       </c>
       <c r="AH6" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>5494</v>
+        <v>5553</v>
       </c>
       <c r="B7" t="s">
-        <v>7</v>
+        <v>40</v>
       </c>
       <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>0</v>
+      </c>
+      <c r="G7">
+        <v>0</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>1</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>1</v>
+      </c>
+      <c r="T7">
+        <v>0</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>0</v>
+      </c>
+      <c r="W7">
+        <v>0</v>
+      </c>
+      <c r="X7">
+        <v>0</v>
+      </c>
+      <c r="Y7">
+        <v>0</v>
+      </c>
+      <c r="Z7">
+        <v>0</v>
+      </c>
+      <c r="AA7">
+        <v>0</v>
+      </c>
+      <c r="AB7">
+        <v>0</v>
+      </c>
+      <c r="AC7">
+        <v>0</v>
+      </c>
+      <c r="AD7">
         <v>6</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>0</v>
-      </c>
-      <c r="G7">
-        <v>0</v>
-      </c>
-      <c r="H7">
-        <v>0</v>
-      </c>
-      <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
-      </c>
-      <c r="K7">
-        <v>0</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="O7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>0</v>
-      </c>
-      <c r="Q7">
+      <c r="AE7">
         <v>3</v>
-      </c>
-      <c r="R7">
-        <v>0</v>
-      </c>
-      <c r="S7">
-        <v>0</v>
-      </c>
-      <c r="T7">
-        <v>1</v>
-      </c>
-      <c r="U7">
-        <v>0</v>
-      </c>
-      <c r="V7">
-        <v>0</v>
-      </c>
-      <c r="W7">
-        <v>0</v>
-      </c>
-      <c r="X7">
-        <v>0</v>
-      </c>
-      <c r="Y7">
-        <v>0</v>
-      </c>
-      <c r="Z7">
-        <v>0</v>
-      </c>
-      <c r="AA7">
-        <v>0</v>
-      </c>
-      <c r="AB7">
-        <v>0</v>
-      </c>
-      <c r="AC7">
-        <v>0</v>
-      </c>
-      <c r="AD7">
-        <v>0</v>
-      </c>
-      <c r="AE7">
-        <v>2</v>
       </c>
       <c r="AF7">
         <v>11</v>
       </c>
       <c r="AG7" s="2">
-        <v>3803.3333333333335</v>
+        <v>417.64904919807805</v>
       </c>
       <c r="AH7" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>5489</v>
+        <v>5482</v>
       </c>
       <c r="B8" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C8">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="D8">
         <v>0</v>
       </c>
       <c r="E8">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="F8">
         <v>0</v>
@@ -2041,7 +2043,7 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>0</v>
       </c>
       <c r="S8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T8">
         <v>0</v>
@@ -2095,19 +2097,19 @@
         <v>0</v>
       </c>
       <c r="AC8">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD8">
+        <v>1</v>
+      </c>
+      <c r="AE8">
+        <v>1</v>
+      </c>
+      <c r="AF8">
         <v>8</v>
       </c>
-      <c r="AE8">
-        <v>6</v>
-      </c>
-      <c r="AF8">
-        <v>14</v>
-      </c>
       <c r="AG8" s="2">
-        <v>228.22277210942002</v>
+        <v>345.64904997604987</v>
       </c>
       <c r="AH8" s="1">
         <v>1</v>
@@ -2115,13 +2117,13 @@
     </row>
     <row r="9" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>5553</v>
+        <v>5532</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>28</v>
       </c>
       <c r="C9">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="D9">
         <v>0</v>
@@ -2136,7 +2138,7 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -2145,10 +2147,10 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
@@ -2163,13 +2165,13 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R9">
         <v>0</v>
       </c>
       <c r="S9">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T9">
         <v>0</v>
@@ -2196,22 +2198,22 @@
         <v>0</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC9">
         <v>0</v>
       </c>
       <c r="AD9">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF9">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG9" s="2">
-        <v>417.64904919807805</v>
+        <v>1039.214433977327</v>
       </c>
       <c r="AH9" s="1">
         <v>1</v>
@@ -2219,13 +2221,13 @@
     </row>
     <row r="10" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>5482</v>
+        <v>5516</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>102</v>
       </c>
       <c r="C10">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D10">
         <v>0</v>
@@ -2234,7 +2236,7 @@
         <v>0</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -2261,7 +2263,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="P10">
         <v>0</v>
@@ -2273,7 +2275,7 @@
         <v>0</v>
       </c>
       <c r="S10">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T10">
         <v>0</v>
@@ -2303,33 +2305,27 @@
         <v>0</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD10">
-        <v>1</v>
-      </c>
-      <c r="AE10">
-        <v>1</v>
-      </c>
-      <c r="AF10">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG10" s="2">
-        <v>345.64904997604987</v>
+        <v>3570.3542234332422</v>
       </c>
       <c r="AH10" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5532</v>
+        <v>5492</v>
       </c>
       <c r="B11" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="D11">
         <v>0</v>
@@ -2347,102 +2343,102 @@
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>1</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>0</v>
+      </c>
+      <c r="X11">
+        <v>0</v>
+      </c>
+      <c r="Y11">
+        <v>0</v>
+      </c>
+      <c r="Z11">
+        <v>0</v>
+      </c>
+      <c r="AA11">
+        <v>0</v>
+      </c>
+      <c r="AB11">
+        <v>0</v>
+      </c>
+      <c r="AC11">
+        <v>0</v>
+      </c>
+      <c r="AD11">
+        <v>0</v>
+      </c>
+      <c r="AE11">
         <v>3</v>
       </c>
-      <c r="L11">
-        <v>0</v>
-      </c>
-      <c r="M11">
-        <v>0</v>
-      </c>
-      <c r="N11">
-        <v>0</v>
-      </c>
-      <c r="O11">
-        <v>0</v>
-      </c>
-      <c r="P11">
-        <v>0</v>
-      </c>
-      <c r="Q11">
-        <v>0</v>
-      </c>
-      <c r="R11">
-        <v>0</v>
-      </c>
-      <c r="S11">
-        <v>0</v>
-      </c>
-      <c r="T11">
-        <v>0</v>
-      </c>
-      <c r="U11">
-        <v>0</v>
-      </c>
-      <c r="V11">
-        <v>0</v>
-      </c>
-      <c r="W11">
-        <v>0</v>
-      </c>
-      <c r="X11">
-        <v>0</v>
-      </c>
-      <c r="Y11">
-        <v>0</v>
-      </c>
-      <c r="Z11">
-        <v>0</v>
-      </c>
-      <c r="AA11">
-        <v>0</v>
-      </c>
-      <c r="AB11">
-        <v>1</v>
-      </c>
-      <c r="AC11">
-        <v>0</v>
-      </c>
-      <c r="AD11">
-        <v>0</v>
-      </c>
-      <c r="AE11">
-        <v>5</v>
-      </c>
       <c r="AF11">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AG11" s="2">
-        <v>1039.214433977327</v>
+        <v>1857.1428571428571</v>
       </c>
       <c r="AH11" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>14765</v>
+        <v>5552</v>
       </c>
       <c r="B12" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="C12">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <v>0</v>
@@ -2451,7 +2447,7 @@
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J12">
         <v>0</v>
@@ -2469,7 +2465,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P12">
         <v>0</v>
@@ -2478,7 +2474,7 @@
         <v>0</v>
       </c>
       <c r="R12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S12">
         <v>0</v>
@@ -2490,7 +2486,7 @@
         <v>0</v>
       </c>
       <c r="V12">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W12">
         <v>0</v>
@@ -2505,7 +2501,7 @@
         <v>0</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB12">
         <v>0</v>
@@ -2517,7 +2513,7 @@
         <v>0</v>
       </c>
       <c r="AG12" s="2">
-        <v>165.49053356282272</v>
+        <v>654.39627228525126</v>
       </c>
       <c r="AH12" s="1">
         <v>1</v>
@@ -2525,22 +2521,22 @@
     </row>
     <row r="13" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5516</v>
+        <v>5508</v>
       </c>
       <c r="B13" t="s">
-        <v>103</v>
+        <v>14</v>
       </c>
       <c r="C13">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="D13">
         <v>0</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -2567,7 +2563,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="P13">
         <v>0</v>
@@ -2606,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC13">
         <v>1</v>
@@ -2614,8 +2610,14 @@
       <c r="AD13">
         <v>0</v>
       </c>
+      <c r="AE13">
+        <v>2</v>
+      </c>
+      <c r="AF13">
+        <v>9</v>
+      </c>
       <c r="AG13" s="2">
-        <v>3570.3542234332422</v>
+        <v>2125.8474576271187</v>
       </c>
       <c r="AH13" s="1">
         <v>0</v>
@@ -2623,117 +2625,117 @@
     </row>
     <row r="14" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>14192</v>
+        <v>5624</v>
       </c>
       <c r="B14" t="s">
-        <v>79</v>
+        <v>56</v>
       </c>
       <c r="C14">
+        <v>34</v>
+      </c>
+      <c r="D14">
+        <v>0</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>0</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>3</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+      <c r="T14">
+        <v>0</v>
+      </c>
+      <c r="U14">
+        <v>1</v>
+      </c>
+      <c r="V14">
+        <v>0</v>
+      </c>
+      <c r="W14">
+        <v>0</v>
+      </c>
+      <c r="X14">
+        <v>0</v>
+      </c>
+      <c r="Y14">
+        <v>0</v>
+      </c>
+      <c r="Z14">
+        <v>0</v>
+      </c>
+      <c r="AA14">
+        <v>0</v>
+      </c>
+      <c r="AB14">
+        <v>0</v>
+      </c>
+      <c r="AC14">
+        <v>0</v>
+      </c>
+      <c r="AD14">
+        <v>0</v>
+      </c>
+      <c r="AE14">
+        <v>5</v>
+      </c>
+      <c r="AF14">
         <v>13</v>
       </c>
-      <c r="D14">
-        <v>1</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-      <c r="F14">
-        <v>0</v>
-      </c>
-      <c r="G14">
-        <v>0</v>
-      </c>
-      <c r="H14">
-        <v>0</v>
-      </c>
-      <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
-      </c>
-      <c r="K14">
-        <v>0</v>
-      </c>
-      <c r="L14">
-        <v>0</v>
-      </c>
-      <c r="M14">
-        <v>0</v>
-      </c>
-      <c r="N14">
-        <v>0</v>
-      </c>
-      <c r="O14">
-        <v>0</v>
-      </c>
-      <c r="P14">
-        <v>0</v>
-      </c>
-      <c r="Q14">
-        <v>0</v>
-      </c>
-      <c r="R14">
-        <v>0</v>
-      </c>
-      <c r="S14">
-        <v>0</v>
-      </c>
-      <c r="T14">
-        <v>0</v>
-      </c>
-      <c r="U14">
-        <v>0</v>
-      </c>
-      <c r="V14">
-        <v>0</v>
-      </c>
-      <c r="W14">
-        <v>0</v>
-      </c>
-      <c r="X14">
-        <v>0</v>
-      </c>
-      <c r="Y14">
-        <v>0</v>
-      </c>
-      <c r="Z14">
-        <v>0</v>
-      </c>
-      <c r="AA14">
-        <v>0</v>
-      </c>
-      <c r="AB14">
-        <v>0</v>
-      </c>
-      <c r="AC14">
-        <v>1</v>
-      </c>
-      <c r="AD14">
-        <v>17</v>
-      </c>
-      <c r="AE14">
-        <v>7</v>
-      </c>
-      <c r="AF14">
-        <v>3</v>
-      </c>
       <c r="AG14" s="2">
-        <v>36.290752408256232</v>
+        <v>2503.2308291163872</v>
       </c>
       <c r="AH14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>5492</v>
+        <v>5499</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C15">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -2751,96 +2753,96 @@
         <v>0</v>
       </c>
       <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>1</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+      <c r="T15">
+        <v>0</v>
+      </c>
+      <c r="U15">
+        <v>1</v>
+      </c>
+      <c r="V15">
+        <v>0</v>
+      </c>
+      <c r="W15">
+        <v>1</v>
+      </c>
+      <c r="X15">
+        <v>0</v>
+      </c>
+      <c r="Y15">
+        <v>0</v>
+      </c>
+      <c r="Z15">
+        <v>0</v>
+      </c>
+      <c r="AA15">
+        <v>0</v>
+      </c>
+      <c r="AB15">
+        <v>0</v>
+      </c>
+      <c r="AC15">
+        <v>0</v>
+      </c>
+      <c r="AD15">
         <v>3</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
-      </c>
-      <c r="K15">
-        <v>0</v>
-      </c>
-      <c r="L15">
-        <v>0</v>
-      </c>
-      <c r="M15">
-        <v>0</v>
-      </c>
-      <c r="N15">
-        <v>0</v>
-      </c>
-      <c r="O15">
-        <v>0</v>
-      </c>
-      <c r="P15">
-        <v>0</v>
-      </c>
-      <c r="Q15">
-        <v>1</v>
-      </c>
-      <c r="R15">
-        <v>1</v>
-      </c>
-      <c r="S15">
-        <v>0</v>
-      </c>
-      <c r="T15">
-        <v>0</v>
-      </c>
-      <c r="U15">
-        <v>0</v>
-      </c>
-      <c r="V15">
-        <v>0</v>
-      </c>
-      <c r="W15">
-        <v>0</v>
-      </c>
-      <c r="X15">
-        <v>0</v>
-      </c>
-      <c r="Y15">
-        <v>0</v>
-      </c>
-      <c r="Z15">
-        <v>0</v>
-      </c>
-      <c r="AA15">
-        <v>0</v>
-      </c>
-      <c r="AB15">
-        <v>0</v>
-      </c>
-      <c r="AC15">
-        <v>0</v>
-      </c>
-      <c r="AD15">
-        <v>0</v>
       </c>
       <c r="AE15">
         <v>3</v>
       </c>
       <c r="AF15">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AG15" s="2">
-        <v>1857.1428571428571</v>
+        <v>850.13806706114406</v>
       </c>
       <c r="AH15" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>14766</v>
+        <v>5498</v>
       </c>
       <c r="B16" t="s">
-        <v>97</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -2885,7 +2887,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="T16">
         <v>0</v>
@@ -2900,13 +2902,13 @@
         <v>0</v>
       </c>
       <c r="X16">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA16">
         <v>0</v>
@@ -2921,30 +2923,30 @@
         <v>0</v>
       </c>
       <c r="AE16">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AF16">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG16" s="2">
-        <v>1723.618895116093</v>
+        <v>647.82778864970646</v>
       </c>
       <c r="AH16" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>5570</v>
+        <v>5563</v>
       </c>
       <c r="B17" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="C17">
-        <v>16</v>
+        <v>45</v>
       </c>
       <c r="D17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -2959,13 +2961,13 @@
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J17">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -3013,10 +3015,10 @@
         <v>0</v>
       </c>
       <c r="AA17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AB17">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC17">
         <v>0</v>
@@ -3024,14 +3026,8 @@
       <c r="AD17">
         <v>0</v>
       </c>
-      <c r="AE17">
-        <v>4</v>
-      </c>
-      <c r="AF17">
-        <v>2</v>
-      </c>
       <c r="AG17" s="2">
-        <v>48.998578530546553</v>
+        <v>71.950715935850369</v>
       </c>
       <c r="AH17" s="1">
         <v>1</v>
@@ -3039,16 +3035,16 @@
     </row>
     <row r="18" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>14438</v>
+        <v>5549</v>
       </c>
       <c r="B18" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="C18">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="D18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -3060,7 +3056,7 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -3072,7 +3068,7 @@
         <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M18">
         <v>0</v>
@@ -3081,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -3090,7 +3086,7 @@
         <v>0</v>
       </c>
       <c r="R18">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S18">
         <v>0</v>
@@ -3105,7 +3101,7 @@
         <v>0</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X18">
         <v>0</v>
@@ -3117,7 +3113,7 @@
         <v>0</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB18">
         <v>0</v>
@@ -3129,30 +3125,30 @@
         <v>0</v>
       </c>
       <c r="AE18">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF18">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AG18" s="2">
-        <v>95.181540549711585</v>
+        <v>2020.6172839506173</v>
       </c>
       <c r="AH18" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>5546</v>
+        <v>5528</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>26</v>
       </c>
       <c r="C19">
-        <v>18</v>
+        <v>66</v>
       </c>
       <c r="D19">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E19">
         <v>0</v>
@@ -3170,76 +3166,76 @@
         <v>0</v>
       </c>
       <c r="J19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K19">
         <v>0</v>
       </c>
       <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+      <c r="T19">
+        <v>0</v>
+      </c>
+      <c r="U19">
+        <v>0</v>
+      </c>
+      <c r="V19">
+        <v>0</v>
+      </c>
+      <c r="W19">
+        <v>0</v>
+      </c>
+      <c r="X19">
+        <v>0</v>
+      </c>
+      <c r="Y19">
+        <v>0</v>
+      </c>
+      <c r="Z19">
+        <v>0</v>
+      </c>
+      <c r="AA19">
+        <v>0</v>
+      </c>
+      <c r="AB19">
+        <v>0</v>
+      </c>
+      <c r="AC19">
+        <v>1</v>
+      </c>
+      <c r="AD19">
+        <v>0</v>
+      </c>
+      <c r="AE19">
         <v>2</v>
       </c>
-      <c r="M19">
-        <v>0</v>
-      </c>
-      <c r="N19">
-        <v>0</v>
-      </c>
-      <c r="O19">
-        <v>1</v>
-      </c>
-      <c r="P19">
-        <v>0</v>
-      </c>
-      <c r="Q19">
-        <v>0</v>
-      </c>
-      <c r="R19">
-        <v>0</v>
-      </c>
-      <c r="S19">
-        <v>0</v>
-      </c>
-      <c r="T19">
-        <v>0</v>
-      </c>
-      <c r="U19">
-        <v>0</v>
-      </c>
-      <c r="V19">
-        <v>0</v>
-      </c>
-      <c r="W19">
-        <v>0</v>
-      </c>
-      <c r="X19">
-        <v>0</v>
-      </c>
-      <c r="Y19">
-        <v>0</v>
-      </c>
-      <c r="Z19">
-        <v>0</v>
-      </c>
-      <c r="AA19">
-        <v>0</v>
-      </c>
-      <c r="AB19">
-        <v>0</v>
-      </c>
-      <c r="AC19">
-        <v>0</v>
-      </c>
-      <c r="AD19">
-        <v>0</v>
-      </c>
-      <c r="AE19">
-        <v>9</v>
-      </c>
       <c r="AF19">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AG19" s="2">
-        <v>91.016249426613484</v>
+        <v>142.27939575987114</v>
       </c>
       <c r="AH19" s="1">
         <v>1</v>
@@ -3247,13 +3243,13 @@
     </row>
     <row r="20" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>5552</v>
+        <v>5568</v>
       </c>
       <c r="B20" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="C20">
-        <v>19</v>
+        <v>71</v>
       </c>
       <c r="D20">
         <v>0</v>
@@ -3262,7 +3258,7 @@
         <v>0</v>
       </c>
       <c r="F20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -3271,7 +3267,7 @@
         <v>0</v>
       </c>
       <c r="I20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
@@ -3301,7 +3297,7 @@
         <v>0</v>
       </c>
       <c r="S20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T20">
         <v>0</v>
@@ -3310,13 +3306,13 @@
         <v>0</v>
       </c>
       <c r="V20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W20">
         <v>0</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y20">
         <v>0</v>
@@ -3325,42 +3321,48 @@
         <v>0</v>
       </c>
       <c r="AA20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB20">
         <v>0</v>
       </c>
       <c r="AC20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD20">
         <v>0</v>
       </c>
+      <c r="AE20">
+        <v>5</v>
+      </c>
+      <c r="AF20">
+        <v>14</v>
+      </c>
       <c r="AG20" s="2">
-        <v>654.39627228525126</v>
+        <v>1358.6843743515253</v>
       </c>
       <c r="AH20" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>5519</v>
+        <v>5500</v>
       </c>
       <c r="B21" t="s">
-        <v>22</v>
+        <v>11</v>
       </c>
       <c r="C21">
-        <v>20</v>
+        <v>77</v>
       </c>
       <c r="D21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -3381,10 +3383,10 @@
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O21">
         <v>0</v>
@@ -3396,7 +3398,7 @@
         <v>0</v>
       </c>
       <c r="R21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S21">
         <v>0</v>
@@ -3417,7 +3419,7 @@
         <v>0</v>
       </c>
       <c r="Y21">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z21">
         <v>0</v>
@@ -3429,36 +3431,36 @@
         <v>0</v>
       </c>
       <c r="AC21">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD21">
         <v>0</v>
       </c>
       <c r="AE21">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF21">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="AG21" s="2">
-        <v>109.92443239001757</v>
+        <v>2478.1923076923076</v>
       </c>
       <c r="AH21" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>11394</v>
+        <v>5569</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>52</v>
       </c>
       <c r="C22">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="D22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E22">
         <v>0</v>
@@ -3479,7 +3481,7 @@
         <v>1</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -3488,10 +3490,10 @@
         <v>0</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P22">
         <v>0</v>
@@ -3509,7 +3511,7 @@
         <v>0</v>
       </c>
       <c r="U22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V22">
         <v>0</v>
@@ -3536,33 +3538,33 @@
         <v>0</v>
       </c>
       <c r="AD22">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AE22">
         <v>3</v>
       </c>
       <c r="AF22">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="AG22" s="2">
-        <v>581.90301761730336</v>
+        <v>3640.5283867341213</v>
       </c>
       <c r="AH22" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A23">
-        <v>10569</v>
+        <v>5533</v>
       </c>
       <c r="B23" t="s">
-        <v>58</v>
+        <v>29</v>
       </c>
       <c r="C23">
-        <v>22</v>
+        <v>86</v>
       </c>
       <c r="D23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -3583,13 +3585,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -3598,10 +3600,10 @@
         <v>0</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R23">
         <v>0</v>
@@ -3616,7 +3618,7 @@
         <v>0</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W23">
         <v>0</v>
@@ -3628,7 +3630,7 @@
         <v>0</v>
       </c>
       <c r="Z23">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA23">
         <v>0</v>
@@ -3642,31 +3644,37 @@
       <c r="AD23">
         <v>0</v>
       </c>
+      <c r="AE23">
+        <v>4</v>
+      </c>
+      <c r="AF23">
+        <v>10</v>
+      </c>
       <c r="AG23" s="2">
-        <v>165.0660725261217</v>
+        <v>1709.4712525667351</v>
       </c>
       <c r="AH23" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A24">
-        <v>5539</v>
+        <v>14436</v>
       </c>
       <c r="B24" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="C24">
-        <v>23</v>
+        <v>87</v>
       </c>
       <c r="D24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -3684,7 +3692,7 @@
         <v>0</v>
       </c>
       <c r="L24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
@@ -3693,10 +3701,10 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q24">
         <v>0</v>
@@ -3726,10 +3734,10 @@
         <v>0</v>
       </c>
       <c r="Z24">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB24">
         <v>0</v>
@@ -3738,39 +3746,39 @@
         <v>0</v>
       </c>
       <c r="AD24">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="AF24">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="AG24" s="2">
-        <v>119.33655915956801</v>
+        <v>2195.8404950154691</v>
       </c>
       <c r="AH24" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>14761</v>
+        <v>14440</v>
       </c>
       <c r="B25" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="C25">
-        <v>24</v>
+        <v>92</v>
       </c>
       <c r="D25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -3791,13 +3799,13 @@
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P25">
         <v>0</v>
@@ -3815,7 +3823,7 @@
         <v>0</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V25">
         <v>0</v>
@@ -3836,10 +3844,10 @@
         <v>0</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AC25">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD25">
         <v>0</v>
@@ -3848,30 +3856,30 @@
         <v>5</v>
       </c>
       <c r="AF25">
-        <v>4</v>
+        <v>12</v>
       </c>
       <c r="AG25" s="2">
-        <v>612.5209861270655</v>
+        <v>3271.7664092664095</v>
       </c>
       <c r="AH25" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>5571</v>
+        <v>5543</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>34</v>
       </c>
       <c r="C26">
-        <v>25</v>
+        <v>94</v>
       </c>
       <c r="D26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E26">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F26">
         <v>0</v>
@@ -3892,7 +3900,7 @@
         <v>0</v>
       </c>
       <c r="L26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M26">
         <v>0</v>
@@ -3910,19 +3918,19 @@
         <v>0</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="S26">
         <v>0</v>
       </c>
       <c r="T26">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U26">
         <v>0</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W26">
         <v>0</v>
@@ -3943,36 +3951,36 @@
         <v>0</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD26">
         <v>0</v>
       </c>
       <c r="AE26">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF26">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="AG26" s="2">
-        <v>70.766197491647958</v>
+        <v>3888.6512180629838</v>
       </c>
       <c r="AH26" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>5515</v>
+        <v>5556</v>
       </c>
       <c r="B27" t="s">
-        <v>20</v>
+        <v>41</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>95</v>
       </c>
       <c r="D27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E27">
         <v>0</v>
@@ -3990,16 +3998,16 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L27">
         <v>0</v>
       </c>
       <c r="M27">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N27">
         <v>0</v>
@@ -4014,7 +4022,7 @@
         <v>0</v>
       </c>
       <c r="R27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S27">
         <v>0</v>
@@ -4047,39 +4055,39 @@
         <v>0</v>
       </c>
       <c r="AC27">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AE27">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AF27">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AG27" s="2">
-        <v>834.55688246385921</v>
+        <v>2822.6678291194416</v>
       </c>
       <c r="AH27" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>5508</v>
+        <v>5566</v>
       </c>
       <c r="B28" t="s">
-        <v>14</v>
+        <v>49</v>
       </c>
       <c r="C28">
-        <v>27</v>
+        <v>96</v>
       </c>
       <c r="D28">
         <v>0</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28">
         <v>0</v>
@@ -4124,7 +4132,7 @@
         <v>0</v>
       </c>
       <c r="T28">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U28">
         <v>0</v>
@@ -4148,10 +4156,10 @@
         <v>0</v>
       </c>
       <c r="AB28">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AD28">
         <v>0</v>
@@ -4160,10 +4168,10 @@
         <v>2</v>
       </c>
       <c r="AF28">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AG28" s="2">
-        <v>2125.8474576271187</v>
+        <v>3396.2848297213632</v>
       </c>
       <c r="AH28" s="1">
         <v>0</v>
@@ -4171,16 +4179,16 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>5560</v>
+        <v>14442</v>
       </c>
       <c r="B29" t="s">
-        <v>44</v>
+        <v>86</v>
       </c>
       <c r="C29">
-        <v>28</v>
+        <v>97</v>
       </c>
       <c r="D29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E29">
         <v>0</v>
@@ -4195,10 +4203,10 @@
         <v>0</v>
       </c>
       <c r="I29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K29">
         <v>0</v>
@@ -4210,7 +4218,7 @@
         <v>0</v>
       </c>
       <c r="N29">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="O29">
         <v>0</v>
@@ -4222,7 +4230,7 @@
         <v>0</v>
       </c>
       <c r="R29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S29">
         <v>0</v>
@@ -4240,7 +4248,7 @@
         <v>0</v>
       </c>
       <c r="X29">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y29">
         <v>0</v>
@@ -4255,42 +4263,42 @@
         <v>0</v>
       </c>
       <c r="AC29">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD29">
         <v>0</v>
       </c>
       <c r="AE29">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF29">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AG29" s="2">
-        <v>187.80817972350232</v>
+        <v>2358.7956204379561</v>
       </c>
       <c r="AH29" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>5544</v>
+        <v>14446</v>
       </c>
       <c r="B30" t="s">
-        <v>35</v>
+        <v>90</v>
       </c>
       <c r="C30">
-        <v>29</v>
+        <v>98</v>
       </c>
       <c r="D30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E30">
         <v>0</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G30">
         <v>0</v>
@@ -4302,7 +4310,7 @@
         <v>0</v>
       </c>
       <c r="J30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K30">
         <v>0</v>
@@ -4314,7 +4322,7 @@
         <v>0</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O30">
         <v>0</v>
@@ -4332,7 +4340,7 @@
         <v>0</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U30">
         <v>0</v>
@@ -4347,7 +4355,7 @@
         <v>1</v>
       </c>
       <c r="Y30">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z30">
         <v>0</v>
@@ -4362,33 +4370,33 @@
         <v>0</v>
       </c>
       <c r="AD30">
+        <v>7</v>
+      </c>
+      <c r="AE30">
+        <v>5</v>
+      </c>
+      <c r="AF30">
         <v>11</v>
       </c>
-      <c r="AE30">
-        <v>7</v>
-      </c>
-      <c r="AF30">
-        <v>7</v>
-      </c>
       <c r="AG30" s="2">
-        <v>561.5861951717103</v>
+        <v>3231.1817279046672</v>
       </c>
       <c r="AH30" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A31">
-        <v>10578</v>
+        <v>5518</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>99</v>
       </c>
       <c r="D31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E31">
         <v>0</v>
@@ -4415,7 +4423,7 @@
         <v>0</v>
       </c>
       <c r="M31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N31">
         <v>0</v>
@@ -4433,7 +4441,7 @@
         <v>0</v>
       </c>
       <c r="S31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T31">
         <v>0</v>
@@ -4448,13 +4456,13 @@
         <v>0</v>
       </c>
       <c r="X31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y31">
         <v>0</v>
       </c>
       <c r="Z31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA31">
         <v>0</v>
@@ -4463,36 +4471,36 @@
         <v>0</v>
       </c>
       <c r="AC31">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD31">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AE31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF31">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AG31" s="2">
-        <v>337.34063796016591</v>
+        <v>3217.4737893160259</v>
       </c>
       <c r="AH31" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>10575</v>
+        <v>14191</v>
       </c>
       <c r="B32" t="s">
-        <v>64</v>
+        <v>78</v>
       </c>
       <c r="C32">
-        <v>31</v>
+        <v>100</v>
       </c>
       <c r="D32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E32">
         <v>0</v>
@@ -4504,7 +4512,7 @@
         <v>0</v>
       </c>
       <c r="H32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <v>0</v>
@@ -4513,22 +4521,22 @@
         <v>0</v>
       </c>
       <c r="K32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L32">
         <v>0</v>
       </c>
       <c r="M32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N32">
         <v>0</v>
       </c>
       <c r="O32">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q32">
         <v>0</v>
@@ -4546,7 +4554,7 @@
         <v>0</v>
       </c>
       <c r="V32">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="W32">
         <v>0</v>
@@ -4564,7 +4572,7 @@
         <v>0</v>
       </c>
       <c r="AB32">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC32">
         <v>0</v>
@@ -4576,24 +4584,24 @@
         <v>4</v>
       </c>
       <c r="AF32">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AG32" s="2">
-        <v>146.40708366443411</v>
+        <v>4090.1774397972126</v>
       </c>
       <c r="AH32" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>5559</v>
+        <v>5493</v>
       </c>
       <c r="B33" t="s">
-        <v>43</v>
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>32</v>
+        <v>4</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -4614,7 +4622,7 @@
         <v>0</v>
       </c>
       <c r="J33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K33">
         <v>0</v>
@@ -4644,16 +4652,16 @@
         <v>0</v>
       </c>
       <c r="T33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U33">
         <v>0</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="W33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X33">
         <v>0</v>
@@ -4665,19 +4673,25 @@
         <v>0</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC33">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>15</v>
+      </c>
+      <c r="AE33">
+        <v>4</v>
+      </c>
+      <c r="AF33">
+        <v>1</v>
       </c>
       <c r="AG33" s="2">
-        <v>91.182399107946992</v>
+        <v>560.43785554214787</v>
       </c>
       <c r="AH33" s="1">
         <v>1</v>
@@ -4685,13 +4699,13 @@
     </row>
     <row r="34" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A34">
-        <v>5561</v>
+        <v>14189</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>77</v>
       </c>
       <c r="C34">
-        <v>33</v>
+        <v>5</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -4709,19 +4723,19 @@
         <v>0</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L34">
         <v>0</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N34">
         <v>0</v>
@@ -4745,13 +4759,13 @@
         <v>0</v>
       </c>
       <c r="U34">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X34">
         <v>0</v>
@@ -4763,7 +4777,7 @@
         <v>0</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB34">
         <v>0</v>
@@ -4774,25 +4788,31 @@
       <c r="AD34">
         <v>0</v>
       </c>
+      <c r="AE34">
+        <v>8</v>
+      </c>
+      <c r="AF34">
+        <v>12</v>
+      </c>
       <c r="AG34" s="2">
-        <v>65.629217783686869</v>
+        <v>1570.0744416873449</v>
       </c>
       <c r="AH34" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>5624</v>
+        <v>14765</v>
       </c>
       <c r="B35" t="s">
-        <v>56</v>
+        <v>96</v>
       </c>
       <c r="C35">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E35">
         <v>0</v>
@@ -4807,7 +4827,7 @@
         <v>0</v>
       </c>
       <c r="I35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J35">
         <v>0</v>
@@ -4816,7 +4836,7 @@
         <v>0</v>
       </c>
       <c r="L35">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="M35">
         <v>0</v>
@@ -4825,7 +4845,7 @@
         <v>0</v>
       </c>
       <c r="O35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P35">
         <v>0</v>
@@ -4834,7 +4854,7 @@
         <v>0</v>
       </c>
       <c r="R35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35">
         <v>0</v>
@@ -4843,10 +4863,10 @@
         <v>0</v>
       </c>
       <c r="U35">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V35">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W35">
         <v>0</v>
@@ -4872,34 +4892,28 @@
       <c r="AD35">
         <v>0</v>
       </c>
-      <c r="AE35">
-        <v>5</v>
-      </c>
-      <c r="AF35">
-        <v>13</v>
-      </c>
       <c r="AG35" s="2">
-        <v>2503.2308291163872</v>
+        <v>165.49053356282272</v>
       </c>
       <c r="AH35" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>5564</v>
+        <v>14192</v>
       </c>
       <c r="B36" t="s">
-        <v>47</v>
+        <v>79</v>
       </c>
       <c r="C36">
-        <v>35</v>
+        <v>13</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F36">
         <v>0</v>
@@ -4920,7 +4934,7 @@
         <v>0</v>
       </c>
       <c r="L36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M36">
         <v>0</v>
@@ -4947,7 +4961,7 @@
         <v>0</v>
       </c>
       <c r="U36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V36">
         <v>0</v>
@@ -4965,19 +4979,25 @@
         <v>0</v>
       </c>
       <c r="AA36">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB36">
         <v>0</v>
       </c>
       <c r="AC36">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD36">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="AE36">
+        <v>7</v>
+      </c>
+      <c r="AF36">
+        <v>3</v>
       </c>
       <c r="AG36" s="2">
-        <v>208.30542531815144</v>
+        <v>36.290752408256232</v>
       </c>
       <c r="AH36" s="1">
         <v>1</v>
@@ -4985,16 +5005,16 @@
     </row>
     <row r="37" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>5499</v>
+        <v>14766</v>
       </c>
       <c r="B37" t="s">
-        <v>10</v>
+        <v>97</v>
       </c>
       <c r="C37">
-        <v>36</v>
+        <v>15</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E37">
         <v>0</v>
@@ -5030,7 +5050,7 @@
         <v>0</v>
       </c>
       <c r="P37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q37">
         <v>0</v>
@@ -5045,16 +5065,16 @@
         <v>0</v>
       </c>
       <c r="U37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V37">
         <v>0</v>
       </c>
       <c r="W37">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y37">
         <v>0</v>
@@ -5069,39 +5089,39 @@
         <v>0</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD37">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AE37">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AF37">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AG37" s="2">
-        <v>850.13806706114406</v>
+        <v>1723.618895116093</v>
       </c>
       <c r="AH37" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>14439</v>
+        <v>5570</v>
       </c>
       <c r="B38" t="s">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="C38">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="D38">
         <v>1</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F38">
         <v>0</v>
@@ -5113,13 +5133,13 @@
         <v>0</v>
       </c>
       <c r="I38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J38">
         <v>0</v>
       </c>
       <c r="K38">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="L38">
         <v>0</v>
@@ -5170,36 +5190,36 @@
         <v>0</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC38">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD38">
         <v>0</v>
       </c>
       <c r="AE38">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AF38">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AG38" s="2">
-        <v>1715.9264931087289</v>
+        <v>48.998578530546553</v>
       </c>
       <c r="AH38" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>10577</v>
+        <v>14438</v>
       </c>
       <c r="B39" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="C39">
-        <v>38</v>
+        <v>17</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -5214,7 +5234,7 @@
         <v>0</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I39">
         <v>0</v>
@@ -5226,7 +5246,7 @@
         <v>0</v>
       </c>
       <c r="L39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M39">
         <v>0</v>
@@ -5235,7 +5255,7 @@
         <v>0</v>
       </c>
       <c r="O39">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P39">
         <v>0</v>
@@ -5271,7 +5291,7 @@
         <v>0</v>
       </c>
       <c r="AA39">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB39">
         <v>0</v>
@@ -5283,13 +5303,13 @@
         <v>0</v>
       </c>
       <c r="AE39">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF39">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="AG39" s="2">
-        <v>84.453687787852147</v>
+        <v>95.181540549711585</v>
       </c>
       <c r="AH39" s="1">
         <v>1</v>
@@ -5297,13 +5317,13 @@
     </row>
     <row r="40" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>5509</v>
+        <v>5546</v>
       </c>
       <c r="B40" t="s">
-        <v>15</v>
+        <v>36</v>
       </c>
       <c r="C40">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -5312,7 +5332,7 @@
         <v>0</v>
       </c>
       <c r="F40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G40">
         <v>0</v>
@@ -5327,10 +5347,10 @@
         <v>0</v>
       </c>
       <c r="K40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L40">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="M40">
         <v>0</v>
@@ -5339,13 +5359,13 @@
         <v>0</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R40">
         <v>0</v>
@@ -5363,7 +5383,7 @@
         <v>0</v>
       </c>
       <c r="W40">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X40">
         <v>0</v>
@@ -5387,27 +5407,27 @@
         <v>0</v>
       </c>
       <c r="AE40">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AF40">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AG40" s="2">
-        <v>1920.053238686779</v>
+        <v>91.016249426613484</v>
       </c>
       <c r="AH40" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>5502</v>
+        <v>5519</v>
       </c>
       <c r="B41" t="s">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -5416,13 +5436,13 @@
         <v>0</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41">
         <v>0</v>
@@ -5437,7 +5457,7 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N41">
         <v>0</v>
@@ -5449,7 +5469,7 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R41">
         <v>0</v>
@@ -5473,7 +5493,7 @@
         <v>0</v>
       </c>
       <c r="Y41">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z41">
         <v>0</v>
@@ -5485,33 +5505,33 @@
         <v>0</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD41">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE41">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF41">
         <v>6</v>
       </c>
       <c r="AG41" s="2">
-        <v>1248.5231283670817</v>
+        <v>109.92443239001757</v>
       </c>
       <c r="AH41" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>5524</v>
+        <v>11394</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>73</v>
       </c>
       <c r="C42">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -5532,10 +5552,10 @@
         <v>0</v>
       </c>
       <c r="J42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L42">
         <v>0</v>
@@ -5547,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="O42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P42">
         <v>0</v>
@@ -5565,7 +5585,7 @@
         <v>0</v>
       </c>
       <c r="U42">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V42">
         <v>0</v>
@@ -5589,19 +5609,19 @@
         <v>0</v>
       </c>
       <c r="AC42">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AD42">
         <v>0</v>
       </c>
       <c r="AE42">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF42">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AG42" s="2">
-        <v>86.012392928740667</v>
+        <v>581.90301761730336</v>
       </c>
       <c r="AH42" s="1">
         <v>1</v>
@@ -5609,19 +5629,19 @@
     </row>
     <row r="43" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>14443</v>
+        <v>10569</v>
       </c>
       <c r="B43" t="s">
-        <v>87</v>
+        <v>58</v>
       </c>
       <c r="C43">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F43">
         <v>0</v>
@@ -5630,7 +5650,7 @@
         <v>0</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I43">
         <v>0</v>
@@ -5639,13 +5659,13 @@
         <v>0</v>
       </c>
       <c r="K43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L43">
         <v>0</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N43">
         <v>0</v>
@@ -5663,7 +5683,7 @@
         <v>0</v>
       </c>
       <c r="S43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T43">
         <v>0</v>
@@ -5684,10 +5704,10 @@
         <v>0</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA43">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB43">
         <v>0</v>
@@ -5698,14 +5718,8 @@
       <c r="AD43">
         <v>0</v>
       </c>
-      <c r="AE43">
-        <v>6</v>
-      </c>
-      <c r="AF43">
-        <v>4</v>
-      </c>
       <c r="AG43" s="2">
-        <v>71.190999148325787</v>
+        <v>165.0660725261217</v>
       </c>
       <c r="AH43" s="1">
         <v>1</v>
@@ -5713,19 +5727,19 @@
     </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>5498</v>
+        <v>5539</v>
       </c>
       <c r="B44" t="s">
-        <v>9</v>
+        <v>32</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>23</v>
       </c>
       <c r="D44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44">
         <v>0</v>
@@ -5746,7 +5760,7 @@
         <v>0</v>
       </c>
       <c r="L44">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M44">
         <v>0</v>
@@ -5767,7 +5781,7 @@
         <v>0</v>
       </c>
       <c r="S44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="T44">
         <v>0</v>
@@ -5785,7 +5799,7 @@
         <v>0</v>
       </c>
       <c r="Y44">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Z44">
         <v>1</v>
@@ -5797,19 +5811,19 @@
         <v>0</v>
       </c>
       <c r="AC44">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD44">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="AE44">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="AF44">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG44" s="2">
-        <v>647.82778864970646</v>
+        <v>119.33655915956801</v>
       </c>
       <c r="AH44" s="1">
         <v>1</v>
@@ -5817,22 +5831,22 @@
     </row>
     <row r="45" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>10818</v>
+        <v>14761</v>
       </c>
       <c r="B45" t="s">
-        <v>71</v>
+        <v>93</v>
       </c>
       <c r="C45">
-        <v>44</v>
+        <v>24</v>
       </c>
       <c r="D45">
         <v>1</v>
       </c>
       <c r="E45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F45">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -5892,7 +5906,7 @@
         <v>0</v>
       </c>
       <c r="Z45">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA45">
         <v>0</v>
@@ -5907,13 +5921,13 @@
         <v>0</v>
       </c>
       <c r="AE45">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF45">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AG45" s="2">
-        <v>72.390953512350379</v>
+        <v>612.5209861270655</v>
       </c>
       <c r="AH45" s="1">
         <v>1</v>
@@ -5921,19 +5935,19 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>5563</v>
+        <v>5571</v>
       </c>
       <c r="B46" t="s">
-        <v>46</v>
+        <v>54</v>
       </c>
       <c r="C46">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="D46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E46">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F46">
         <v>0</v>
@@ -5945,16 +5959,16 @@
         <v>0</v>
       </c>
       <c r="I46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J46">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K46">
         <v>0</v>
       </c>
       <c r="L46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M46">
         <v>0</v>
@@ -5978,7 +5992,7 @@
         <v>0</v>
       </c>
       <c r="T46">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U46">
         <v>0</v>
@@ -5999,7 +6013,7 @@
         <v>0</v>
       </c>
       <c r="AA46">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AB46">
         <v>0</v>
@@ -6010,8 +6024,14 @@
       <c r="AD46">
         <v>0</v>
       </c>
+      <c r="AE46">
+        <v>8</v>
+      </c>
+      <c r="AF46">
+        <v>1</v>
+      </c>
       <c r="AG46" s="2">
-        <v>71.950715935850369</v>
+        <v>70.766197491647958</v>
       </c>
       <c r="AH46" s="1">
         <v>1</v>
@@ -6019,13 +6039,13 @@
     </row>
     <row r="47" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>10574</v>
+        <v>5515</v>
       </c>
       <c r="B47" t="s">
-        <v>63</v>
+        <v>20</v>
       </c>
       <c r="C47">
-        <v>46</v>
+        <v>26</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -6058,22 +6078,22 @@
         <v>0</v>
       </c>
       <c r="N47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
         <v>0</v>
       </c>
       <c r="R47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S47">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T47">
         <v>0</v>
@@ -6103,19 +6123,19 @@
         <v>0</v>
       </c>
       <c r="AC47">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD47">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="AE47">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AF47">
         <v>7</v>
       </c>
       <c r="AG47" s="2">
-        <v>94.175462028716197</v>
+        <v>834.55688246385921</v>
       </c>
       <c r="AH47" s="1">
         <v>1</v>
@@ -6123,13 +6143,13 @@
     </row>
     <row r="48" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>14445</v>
+        <v>5560</v>
       </c>
       <c r="B48" t="s">
-        <v>89</v>
+        <v>44</v>
       </c>
       <c r="C48">
-        <v>47</v>
+        <v>28</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -6147,10 +6167,10 @@
         <v>0</v>
       </c>
       <c r="I48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K48">
         <v>0</v>
@@ -6162,7 +6182,7 @@
         <v>0</v>
       </c>
       <c r="N48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O48">
         <v>0</v>
@@ -6174,7 +6194,7 @@
         <v>0</v>
       </c>
       <c r="R48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S48">
         <v>0</v>
@@ -6204,22 +6224,22 @@
         <v>0</v>
       </c>
       <c r="AB48">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC48">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD48">
         <v>0</v>
       </c>
       <c r="AE48">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF48">
         <v>2</v>
       </c>
       <c r="AG48" s="2">
-        <v>308.08317332459137</v>
+        <v>187.80817972350232</v>
       </c>
       <c r="AH48" s="1">
         <v>1</v>
@@ -6227,13 +6247,13 @@
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>5512</v>
+        <v>5544</v>
       </c>
       <c r="B49" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="C49">
-        <v>48</v>
+        <v>29</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -6254,13 +6274,13 @@
         <v>0</v>
       </c>
       <c r="J49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K49">
         <v>0</v>
       </c>
       <c r="L49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M49">
         <v>0</v>
@@ -6278,7 +6298,7 @@
         <v>0</v>
       </c>
       <c r="R49">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S49">
         <v>0</v>
@@ -6296,16 +6316,16 @@
         <v>0</v>
       </c>
       <c r="X49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y49">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA49">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB49">
         <v>0</v>
@@ -6314,10 +6334,16 @@
         <v>0</v>
       </c>
       <c r="AD49">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="AE49">
+        <v>7</v>
+      </c>
+      <c r="AF49">
+        <v>7</v>
       </c>
       <c r="AG49" s="2">
-        <v>850.61679790026244</v>
+        <v>561.5861951717103</v>
       </c>
       <c r="AH49" s="1">
         <v>1</v>
@@ -6325,13 +6351,13 @@
     </row>
     <row r="50" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>5513</v>
+        <v>10578</v>
       </c>
       <c r="B50" t="s">
-        <v>18</v>
+        <v>67</v>
       </c>
       <c r="C50">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="D50">
         <v>1</v>
@@ -6340,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="F50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G50">
         <v>0</v>
@@ -6361,7 +6387,7 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N50">
         <v>0</v>
@@ -6379,7 +6405,7 @@
         <v>0</v>
       </c>
       <c r="S50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T50">
         <v>0</v>
@@ -6394,13 +6420,13 @@
         <v>0</v>
       </c>
       <c r="X50">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y50">
         <v>0</v>
       </c>
       <c r="Z50">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AA50">
         <v>0</v>
@@ -6409,19 +6435,19 @@
         <v>0</v>
       </c>
       <c r="AC50">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD50">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="AE50">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AF50">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AG50" s="2">
-        <v>381.26290941280615</v>
+        <v>337.34063796016591</v>
       </c>
       <c r="AH50" s="1">
         <v>1</v>
@@ -6429,13 +6455,13 @@
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>5510</v>
+        <v>10575</v>
       </c>
       <c r="B51" t="s">
-        <v>16</v>
+        <v>64</v>
       </c>
       <c r="C51">
-        <v>50</v>
+        <v>31</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -6450,7 +6476,7 @@
         <v>0</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I51">
         <v>0</v>
@@ -6465,19 +6491,19 @@
         <v>0</v>
       </c>
       <c r="M51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N51">
         <v>0</v>
       </c>
       <c r="O51">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P51">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R51">
         <v>0</v>
@@ -6513,19 +6539,19 @@
         <v>0</v>
       </c>
       <c r="AC51">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD51">
         <v>0</v>
       </c>
       <c r="AE51">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="AF51">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="AG51" s="2">
-        <v>115.98528065356714</v>
+        <v>146.40708366443411</v>
       </c>
       <c r="AH51" s="1">
         <v>1</v>
@@ -6533,13 +6559,13 @@
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>14768</v>
+        <v>5559</v>
       </c>
       <c r="B52" t="s">
-        <v>99</v>
+        <v>43</v>
       </c>
       <c r="C52">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -6572,7 +6598,7 @@
         <v>0</v>
       </c>
       <c r="N52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O52">
         <v>0</v>
@@ -6599,7 +6625,7 @@
         <v>0</v>
       </c>
       <c r="W52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X52">
         <v>0</v>
@@ -6614,22 +6640,16 @@
         <v>0</v>
       </c>
       <c r="AB52">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC52">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD52">
         <v>0</v>
       </c>
-      <c r="AE52">
-        <v>9</v>
-      </c>
-      <c r="AF52">
-        <v>9</v>
-      </c>
       <c r="AG52" s="2">
-        <v>107.59067742095107</v>
+        <v>91.182399107946992</v>
       </c>
       <c r="AH52" s="1">
         <v>1</v>
@@ -6637,13 +6657,13 @@
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>14447</v>
+        <v>5561</v>
       </c>
       <c r="B53" t="s">
-        <v>91</v>
+        <v>45</v>
       </c>
       <c r="C53">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -6652,7 +6672,7 @@
         <v>0</v>
       </c>
       <c r="F53">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G53">
         <v>0</v>
@@ -6664,10 +6684,10 @@
         <v>0</v>
       </c>
       <c r="J53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L53">
         <v>0</v>
@@ -6697,13 +6717,13 @@
         <v>0</v>
       </c>
       <c r="U53">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V53">
         <v>1</v>
       </c>
       <c r="W53">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X53">
         <v>0</v>
@@ -6726,14 +6746,8 @@
       <c r="AD53">
         <v>0</v>
       </c>
-      <c r="AE53">
-        <v>8</v>
-      </c>
-      <c r="AF53">
-        <v>11</v>
-      </c>
       <c r="AG53" s="2">
-        <v>148.61082806874532</v>
+        <v>65.629217783686869</v>
       </c>
       <c r="AH53" s="1">
         <v>1</v>
@@ -6741,13 +6755,13 @@
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>5527</v>
+        <v>5564</v>
       </c>
       <c r="B54" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C54">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -6774,7 +6788,7 @@
         <v>0</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M54">
         <v>0</v>
@@ -6792,7 +6806,7 @@
         <v>0</v>
       </c>
       <c r="R54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S54">
         <v>0</v>
@@ -6801,13 +6815,13 @@
         <v>0</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V54">
         <v>0</v>
       </c>
       <c r="W54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X54">
         <v>0</v>
@@ -6816,28 +6830,22 @@
         <v>0</v>
       </c>
       <c r="Z54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB54">
         <v>0</v>
       </c>
       <c r="AC54">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD54">
         <v>0</v>
       </c>
-      <c r="AE54">
-        <v>3</v>
-      </c>
-      <c r="AF54">
-        <v>3</v>
-      </c>
       <c r="AG54" s="2">
-        <v>205.43578054262829</v>
+        <v>208.30542531815144</v>
       </c>
       <c r="AH54" s="1">
         <v>1</v>
@@ -6845,13 +6853,13 @@
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>5537</v>
+        <v>14439</v>
       </c>
       <c r="B55" t="s">
-        <v>31</v>
+        <v>83</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>37</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -6869,7 +6877,7 @@
         <v>0</v>
       </c>
       <c r="I55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J55">
         <v>0</v>
@@ -6896,10 +6904,10 @@
         <v>0</v>
       </c>
       <c r="R55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T55">
         <v>0</v>
@@ -6908,7 +6916,7 @@
         <v>0</v>
       </c>
       <c r="V55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W55">
         <v>0</v>
@@ -6920,7 +6928,7 @@
         <v>0</v>
       </c>
       <c r="Z55">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA55">
         <v>0</v>
@@ -6929,33 +6937,33 @@
         <v>0</v>
       </c>
       <c r="AC55">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD55">
         <v>0</v>
       </c>
       <c r="AE55">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF55">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AG55" s="2">
-        <v>110.01587408808433</v>
+        <v>1715.9264931087289</v>
       </c>
       <c r="AH55" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>14767</v>
+        <v>10577</v>
       </c>
       <c r="B56" t="s">
-        <v>98</v>
+        <v>66</v>
       </c>
       <c r="C56">
-        <v>55</v>
+        <v>38</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -6964,7 +6972,7 @@
         <v>0</v>
       </c>
       <c r="F56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G56">
         <v>0</v>
@@ -6982,10 +6990,10 @@
         <v>0</v>
       </c>
       <c r="L56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N56">
         <v>0</v>
@@ -7000,7 +7008,7 @@
         <v>0</v>
       </c>
       <c r="R56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S56">
         <v>0</v>
@@ -7018,7 +7026,7 @@
         <v>0</v>
       </c>
       <c r="X56">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y56">
         <v>0</v>
@@ -7027,7 +7035,7 @@
         <v>0</v>
       </c>
       <c r="AA56">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB56">
         <v>0</v>
@@ -7039,13 +7047,13 @@
         <v>0</v>
       </c>
       <c r="AE56">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AF56">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG56" s="2">
-        <v>79.015716973117293</v>
+        <v>84.453687787852147</v>
       </c>
       <c r="AH56" s="1">
         <v>1</v>
@@ -7053,13 +7061,13 @@
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>14437</v>
+        <v>5509</v>
       </c>
       <c r="B57" t="s">
-        <v>81</v>
+        <v>15</v>
       </c>
       <c r="C57">
-        <v>56</v>
+        <v>39</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -7068,7 +7076,7 @@
         <v>0</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G57">
         <v>0</v>
@@ -7080,10 +7088,10 @@
         <v>0</v>
       </c>
       <c r="J57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L57">
         <v>0</v>
@@ -7092,7 +7100,7 @@
         <v>0</v>
       </c>
       <c r="N57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O57">
         <v>0</v>
@@ -7101,7 +7109,7 @@
         <v>1</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R57">
         <v>0</v>
@@ -7119,7 +7127,7 @@
         <v>0</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X57">
         <v>0</v>
@@ -7128,7 +7136,7 @@
         <v>0</v>
       </c>
       <c r="Z57">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA57">
         <v>0</v>
@@ -7143,27 +7151,27 @@
         <v>0</v>
       </c>
       <c r="AE57">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="AF57">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="AG57" s="2">
-        <v>180.06082759005554</v>
+        <v>1920.053238686779</v>
       </c>
       <c r="AH57" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>5573</v>
+        <v>5502</v>
       </c>
       <c r="B58" t="s">
-        <v>55</v>
+        <v>12</v>
       </c>
       <c r="C58">
-        <v>57</v>
+        <v>40</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -7190,10 +7198,10 @@
         <v>0</v>
       </c>
       <c r="L58">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M58">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N58">
         <v>0</v>
@@ -7205,32 +7213,32 @@
         <v>0</v>
       </c>
       <c r="Q58">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="R58">
         <v>0</v>
       </c>
       <c r="S58">
+        <v>0</v>
+      </c>
+      <c r="T58">
+        <v>0</v>
+      </c>
+      <c r="U58">
+        <v>0</v>
+      </c>
+      <c r="V58">
+        <v>0</v>
+      </c>
+      <c r="W58">
+        <v>0</v>
+      </c>
+      <c r="X58">
+        <v>0</v>
+      </c>
+      <c r="Y58">
         <v>2</v>
       </c>
-      <c r="T58">
-        <v>0</v>
-      </c>
-      <c r="U58">
-        <v>1</v>
-      </c>
-      <c r="V58">
-        <v>0</v>
-      </c>
-      <c r="W58">
-        <v>0</v>
-      </c>
-      <c r="X58">
-        <v>0</v>
-      </c>
-      <c r="Y58">
-        <v>0</v>
-      </c>
       <c r="Z58">
         <v>0</v>
       </c>
@@ -7244,30 +7252,30 @@
         <v>0</v>
       </c>
       <c r="AD58">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="AE58">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF58">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG58" s="2">
-        <v>113.92783106707424</v>
+        <v>1248.5231283670817</v>
       </c>
       <c r="AH58" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>5536</v>
+        <v>5524</v>
       </c>
       <c r="B59" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C59">
-        <v>58</v>
+        <v>41</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -7285,10 +7293,10 @@
         <v>0</v>
       </c>
       <c r="I59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J59">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K59">
         <v>0</v>
@@ -7300,64 +7308,64 @@
         <v>0</v>
       </c>
       <c r="N59">
+        <v>0</v>
+      </c>
+      <c r="O59">
+        <v>0</v>
+      </c>
+      <c r="P59">
+        <v>0</v>
+      </c>
+      <c r="Q59">
+        <v>0</v>
+      </c>
+      <c r="R59">
+        <v>0</v>
+      </c>
+      <c r="S59">
+        <v>0</v>
+      </c>
+      <c r="T59">
+        <v>0</v>
+      </c>
+      <c r="U59">
+        <v>0</v>
+      </c>
+      <c r="V59">
+        <v>0</v>
+      </c>
+      <c r="W59">
+        <v>0</v>
+      </c>
+      <c r="X59">
+        <v>0</v>
+      </c>
+      <c r="Y59">
+        <v>0</v>
+      </c>
+      <c r="Z59">
+        <v>0</v>
+      </c>
+      <c r="AA59">
+        <v>0</v>
+      </c>
+      <c r="AB59">
+        <v>0</v>
+      </c>
+      <c r="AC59">
         <v>2</v>
       </c>
-      <c r="O59">
-        <v>0</v>
-      </c>
-      <c r="P59">
-        <v>1</v>
-      </c>
-      <c r="Q59">
-        <v>0</v>
-      </c>
-      <c r="R59">
-        <v>0</v>
-      </c>
-      <c r="S59">
-        <v>0</v>
-      </c>
-      <c r="T59">
-        <v>0</v>
-      </c>
-      <c r="U59">
-        <v>0</v>
-      </c>
-      <c r="V59">
-        <v>0</v>
-      </c>
-      <c r="W59">
-        <v>1</v>
-      </c>
-      <c r="X59">
-        <v>0</v>
-      </c>
-      <c r="Y59">
-        <v>0</v>
-      </c>
-      <c r="Z59">
-        <v>0</v>
-      </c>
-      <c r="AA59">
-        <v>0</v>
-      </c>
-      <c r="AB59">
-        <v>0</v>
-      </c>
-      <c r="AC59">
-        <v>0</v>
-      </c>
       <c r="AD59">
         <v>0</v>
       </c>
       <c r="AE59">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AF59">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AG59" s="2">
-        <v>884.64043419267296</v>
+        <v>86.012392928740667</v>
       </c>
       <c r="AH59" s="1">
         <v>1</v>
@@ -7365,19 +7373,19 @@
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>10584</v>
+        <v>14443</v>
       </c>
       <c r="B60" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="C60">
-        <v>59</v>
+        <v>42</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60">
         <v>0</v>
@@ -7392,7 +7400,7 @@
         <v>0</v>
       </c>
       <c r="J60">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="K60">
         <v>0</v>
@@ -7401,7 +7409,7 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N60">
         <v>0</v>
@@ -7419,7 +7427,7 @@
         <v>0</v>
       </c>
       <c r="S60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T60">
         <v>0</v>
@@ -7434,7 +7442,7 @@
         <v>0</v>
       </c>
       <c r="X60">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y60">
         <v>0</v>
@@ -7443,7 +7451,7 @@
         <v>0</v>
       </c>
       <c r="AA60">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB60">
         <v>0</v>
@@ -7455,13 +7463,13 @@
         <v>0</v>
       </c>
       <c r="AE60">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF60">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AG60" s="2">
-        <v>256.48553727161516</v>
+        <v>71.190999148325787</v>
       </c>
       <c r="AH60" s="1">
         <v>1</v>
@@ -7469,19 +7477,19 @@
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>14441</v>
+        <v>10818</v>
       </c>
       <c r="B61" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="C61">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="D61">
         <v>1</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F61">
         <v>0</v>
@@ -7496,7 +7504,7 @@
         <v>0</v>
       </c>
       <c r="J61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K61">
         <v>0</v>
@@ -7514,10 +7522,10 @@
         <v>0</v>
       </c>
       <c r="P61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R61">
         <v>0</v>
@@ -7544,7 +7552,7 @@
         <v>0</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA61">
         <v>0</v>
@@ -7553,19 +7561,19 @@
         <v>0</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD61">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="AE61">
+        <v>6</v>
+      </c>
+      <c r="AF61">
         <v>8</v>
       </c>
-      <c r="AF61">
-        <v>6</v>
-      </c>
       <c r="AG61" s="2">
-        <v>187.97268459240291</v>
+        <v>72.390953512350379</v>
       </c>
       <c r="AH61" s="1">
         <v>1</v>
@@ -7573,16 +7581,16 @@
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>5549</v>
+        <v>10574</v>
       </c>
       <c r="B62" t="s">
-        <v>38</v>
+        <v>63</v>
       </c>
       <c r="C62">
-        <v>61</v>
+        <v>46</v>
       </c>
       <c r="D62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E62">
         <v>0</v>
@@ -7594,7 +7602,7 @@
         <v>0</v>
       </c>
       <c r="H62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I62">
         <v>0</v>
@@ -7606,19 +7614,19 @@
         <v>0</v>
       </c>
       <c r="L62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M62">
         <v>0</v>
       </c>
       <c r="N62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O62">
         <v>0</v>
       </c>
       <c r="P62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q62">
         <v>0</v>
@@ -7627,7 +7635,7 @@
         <v>0</v>
       </c>
       <c r="S62">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T62">
         <v>0</v>
@@ -7639,7 +7647,7 @@
         <v>0</v>
       </c>
       <c r="W62">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X62">
         <v>0</v>
@@ -7651,7 +7659,7 @@
         <v>0</v>
       </c>
       <c r="AA62">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB62">
         <v>0</v>
@@ -7660,30 +7668,30 @@
         <v>0</v>
       </c>
       <c r="AD62">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="AE62">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="AF62">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG62" s="2">
-        <v>2020.6172839506173</v>
+        <v>94.175462028716197</v>
       </c>
       <c r="AH62" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>10579</v>
+        <v>14445</v>
       </c>
       <c r="B63" t="s">
-        <v>68</v>
+        <v>89</v>
       </c>
       <c r="C63">
-        <v>62</v>
+        <v>47</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -7716,7 +7724,7 @@
         <v>0</v>
       </c>
       <c r="N63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -7728,10 +7736,10 @@
         <v>0</v>
       </c>
       <c r="R63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T63">
         <v>0</v>
@@ -7758,22 +7766,22 @@
         <v>0</v>
       </c>
       <c r="AB63">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD63">
         <v>0</v>
       </c>
       <c r="AE63">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF63">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="AG63" s="2">
-        <v>76.775383280300844</v>
+        <v>308.08317332459137</v>
       </c>
       <c r="AH63" s="1">
         <v>1</v>
@@ -7781,13 +7789,13 @@
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>5541</v>
+        <v>5512</v>
       </c>
       <c r="B64" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="C64">
-        <v>63</v>
+        <v>48</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -7796,44 +7804,44 @@
         <v>0</v>
       </c>
       <c r="F64">
+        <v>0</v>
+      </c>
+      <c r="G64">
+        <v>0</v>
+      </c>
+      <c r="H64">
+        <v>0</v>
+      </c>
+      <c r="I64">
+        <v>0</v>
+      </c>
+      <c r="J64">
+        <v>0</v>
+      </c>
+      <c r="K64">
+        <v>0</v>
+      </c>
+      <c r="L64">
+        <v>1</v>
+      </c>
+      <c r="M64">
+        <v>0</v>
+      </c>
+      <c r="N64">
+        <v>0</v>
+      </c>
+      <c r="O64">
+        <v>0</v>
+      </c>
+      <c r="P64">
+        <v>0</v>
+      </c>
+      <c r="Q64">
+        <v>0</v>
+      </c>
+      <c r="R64">
         <v>2</v>
       </c>
-      <c r="G64">
-        <v>0</v>
-      </c>
-      <c r="H64">
-        <v>0</v>
-      </c>
-      <c r="I64">
-        <v>0</v>
-      </c>
-      <c r="J64">
-        <v>0</v>
-      </c>
-      <c r="K64">
-        <v>0</v>
-      </c>
-      <c r="L64">
-        <v>0</v>
-      </c>
-      <c r="M64">
-        <v>0</v>
-      </c>
-      <c r="N64">
-        <v>1</v>
-      </c>
-      <c r="O64">
-        <v>0</v>
-      </c>
-      <c r="P64">
-        <v>0</v>
-      </c>
-      <c r="Q64">
-        <v>0</v>
-      </c>
-      <c r="R64">
-        <v>0</v>
-      </c>
       <c r="S64">
         <v>0</v>
       </c>
@@ -7841,7 +7849,7 @@
         <v>0</v>
       </c>
       <c r="U64">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V64">
         <v>0</v>
@@ -7856,10 +7864,10 @@
         <v>0</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB64">
         <v>0</v>
@@ -7871,7 +7879,7 @@
         <v>0</v>
       </c>
       <c r="AG64" s="2">
-        <v>81.16077812569344</v>
+        <v>850.61679790026244</v>
       </c>
       <c r="AH64" s="1">
         <v>1</v>
@@ -7879,13 +7887,13 @@
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>14448</v>
+        <v>5513</v>
       </c>
       <c r="B65" t="s">
-        <v>92</v>
+        <v>18</v>
       </c>
       <c r="C65">
-        <v>64</v>
+        <v>49</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -7894,7 +7902,7 @@
         <v>0</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G65">
         <v>0</v>
@@ -7915,10 +7923,10 @@
         <v>0</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O65">
         <v>0</v>
@@ -7927,7 +7935,7 @@
         <v>0</v>
       </c>
       <c r="Q65">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R65">
         <v>0</v>
@@ -7954,7 +7962,7 @@
         <v>0</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AA65">
         <v>0</v>
@@ -7969,13 +7977,13 @@
         <v>0</v>
       </c>
       <c r="AE65">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="AF65">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="AG65" s="2">
-        <v>66.340901679439099</v>
+        <v>381.26290941280615</v>
       </c>
       <c r="AH65" s="1">
         <v>1</v>
@@ -7983,13 +7991,13 @@
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>5483</v>
+        <v>5510</v>
       </c>
       <c r="B66" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C66">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -8049,37 +8057,37 @@
         <v>0</v>
       </c>
       <c r="W66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X66">
         <v>0</v>
       </c>
       <c r="Y66">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z66">
         <v>0</v>
       </c>
       <c r="AA66">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AB66">
         <v>0</v>
       </c>
       <c r="AC66">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD66">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="AE66">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AF66">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AG66" s="2">
-        <v>74.255238358245023</v>
+        <v>115.98528065356714</v>
       </c>
       <c r="AH66" s="1">
         <v>1</v>
@@ -8087,16 +8095,16 @@
     </row>
     <row r="67" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>5528</v>
+        <v>14768</v>
       </c>
       <c r="B67" t="s">
-        <v>26</v>
+        <v>99</v>
       </c>
       <c r="C67">
-        <v>66</v>
+        <v>51</v>
       </c>
       <c r="D67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E67">
         <v>0</v>
@@ -8114,7 +8122,7 @@
         <v>0</v>
       </c>
       <c r="J67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K67">
         <v>0</v>
@@ -8126,7 +8134,7 @@
         <v>0</v>
       </c>
       <c r="N67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O67">
         <v>0</v>
@@ -8144,7 +8152,7 @@
         <v>0</v>
       </c>
       <c r="T67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U67">
         <v>0</v>
@@ -8168,22 +8176,22 @@
         <v>0</v>
       </c>
       <c r="AB67">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC67">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD67">
         <v>0</v>
       </c>
       <c r="AE67">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="AF67">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AG67" s="2">
-        <v>142.27939575987114</v>
+        <v>107.59067742095107</v>
       </c>
       <c r="AH67" s="1">
         <v>1</v>
@@ -8191,13 +8199,13 @@
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>10570</v>
+        <v>14447</v>
       </c>
       <c r="B68" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="C68">
-        <v>67</v>
+        <v>52</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -8206,7 +8214,7 @@
         <v>0</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -8230,7 +8238,7 @@
         <v>0</v>
       </c>
       <c r="N68">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O68">
         <v>0</v>
@@ -8251,7 +8259,7 @@
         <v>0</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V68">
         <v>1</v>
@@ -8272,7 +8280,7 @@
         <v>0</v>
       </c>
       <c r="AB68">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AC68">
         <v>0</v>
@@ -8281,13 +8289,13 @@
         <v>0</v>
       </c>
       <c r="AE68">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AF68">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="AG68" s="2">
-        <v>51.737912218074285</v>
+        <v>148.61082806874532</v>
       </c>
       <c r="AH68" s="1">
         <v>1</v>
@@ -8295,13 +8303,13 @@
     </row>
     <row r="69" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A69">
-        <v>10572</v>
+        <v>5527</v>
       </c>
       <c r="B69" t="s">
-        <v>61</v>
+        <v>25</v>
       </c>
       <c r="C69">
-        <v>68</v>
+        <v>53</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -8316,7 +8324,7 @@
         <v>0</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69">
         <v>0</v>
@@ -8343,10 +8351,10 @@
         <v>0</v>
       </c>
       <c r="Q69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S69">
         <v>0</v>
@@ -8358,7 +8366,7 @@
         <v>0</v>
       </c>
       <c r="V69">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W69">
         <v>1</v>
@@ -8370,7 +8378,7 @@
         <v>0</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA69">
         <v>0</v>
@@ -8379,19 +8387,19 @@
         <v>0</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD69">
         <v>0</v>
       </c>
       <c r="AE69">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AF69">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="AG69" s="2">
-        <v>91.345402910898116</v>
+        <v>205.43578054262829</v>
       </c>
       <c r="AH69" s="1">
         <v>1</v>
@@ -8399,13 +8407,13 @@
     </row>
     <row r="70" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>14764</v>
+        <v>5537</v>
       </c>
       <c r="B70" t="s">
-        <v>95</v>
+        <v>31</v>
       </c>
       <c r="C70">
-        <v>69</v>
+        <v>54</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -8423,7 +8431,7 @@
         <v>0</v>
       </c>
       <c r="I70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J70">
         <v>0</v>
@@ -8432,7 +8440,7 @@
         <v>0</v>
       </c>
       <c r="L70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M70">
         <v>0</v>
@@ -8450,19 +8458,19 @@
         <v>0</v>
       </c>
       <c r="R70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T70">
         <v>0</v>
       </c>
       <c r="U70">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W70">
         <v>0</v>
@@ -8474,7 +8482,7 @@
         <v>0</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA70">
         <v>0</v>
@@ -8489,13 +8497,13 @@
         <v>0</v>
       </c>
       <c r="AE70">
+        <v>7</v>
+      </c>
+      <c r="AF70">
         <v>8</v>
       </c>
-      <c r="AF70">
-        <v>5</v>
-      </c>
       <c r="AG70" s="2">
-        <v>108.13484120629838</v>
+        <v>110.01587408808433</v>
       </c>
       <c r="AH70" s="1">
         <v>1</v>
@@ -8503,13 +8511,13 @@
     </row>
     <row r="71" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>10573</v>
+        <v>14767</v>
       </c>
       <c r="B71" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="C71">
-        <v>70</v>
+        <v>55</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -8518,16 +8526,16 @@
         <v>0</v>
       </c>
       <c r="F71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G71">
         <v>0</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J71">
         <v>0</v>
@@ -8572,7 +8580,7 @@
         <v>0</v>
       </c>
       <c r="X71">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y71">
         <v>0</v>
@@ -8593,13 +8601,13 @@
         <v>0</v>
       </c>
       <c r="AE71">
+        <v>4</v>
+      </c>
+      <c r="AF71">
         <v>5</v>
       </c>
-      <c r="AF71">
-        <v>3</v>
-      </c>
       <c r="AG71" s="2">
-        <v>110.77965985929923</v>
+        <v>79.015716973117293</v>
       </c>
       <c r="AH71" s="1">
         <v>1</v>
@@ -8607,16 +8615,16 @@
     </row>
     <row r="72" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>5568</v>
+        <v>14437</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="C72">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E72">
         <v>0</v>
@@ -8634,7 +8642,7 @@
         <v>0</v>
       </c>
       <c r="J72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K72">
         <v>0</v>
@@ -8646,13 +8654,13 @@
         <v>0</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O72">
         <v>0</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q72">
         <v>0</v>
@@ -8661,7 +8669,7 @@
         <v>0</v>
       </c>
       <c r="S72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T72">
         <v>0</v>
@@ -8670,19 +8678,19 @@
         <v>0</v>
       </c>
       <c r="V72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W72">
         <v>0</v>
       </c>
       <c r="X72">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Y72">
         <v>0</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA72">
         <v>0</v>
@@ -8691,33 +8699,33 @@
         <v>0</v>
       </c>
       <c r="AC72">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD72">
         <v>0</v>
       </c>
       <c r="AE72">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AF72">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="AG72" s="2">
-        <v>1358.6843743515253</v>
+        <v>180.06082759005554</v>
       </c>
       <c r="AH72" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A73">
-        <v>5514</v>
+        <v>5573</v>
       </c>
       <c r="B73" t="s">
-        <v>19</v>
+        <v>55</v>
       </c>
       <c r="C73">
-        <v>72</v>
+        <v>57</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -8732,10 +8740,10 @@
         <v>0</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I73">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J73">
         <v>0</v>
@@ -8744,7 +8752,7 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M73">
         <v>0</v>
@@ -8765,10 +8773,10 @@
         <v>0</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="T73">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U73">
         <v>1</v>
@@ -8801,13 +8809,13 @@
         <v>0</v>
       </c>
       <c r="AE73">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AF73">
         <v>7</v>
       </c>
       <c r="AG73" s="2">
-        <v>726.66297731045938</v>
+        <v>113.92783106707424</v>
       </c>
       <c r="AH73" s="1">
         <v>1</v>
@@ -8815,19 +8823,19 @@
     </row>
     <row r="74" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A74">
-        <v>10571</v>
+        <v>5536</v>
       </c>
       <c r="B74" t="s">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="C74">
-        <v>73</v>
+        <v>58</v>
       </c>
       <c r="D74">
         <v>1</v>
       </c>
       <c r="E74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F74">
         <v>0</v>
@@ -8839,10 +8847,10 @@
         <v>0</v>
       </c>
       <c r="I74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K74">
         <v>0</v>
@@ -8854,13 +8862,13 @@
         <v>0</v>
       </c>
       <c r="N74">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O74">
         <v>0</v>
       </c>
       <c r="P74">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q74">
         <v>0</v>
@@ -8872,7 +8880,7 @@
         <v>0</v>
       </c>
       <c r="T74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U74">
         <v>0</v>
@@ -8896,7 +8904,7 @@
         <v>0</v>
       </c>
       <c r="AB74">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC74">
         <v>0</v>
@@ -8905,13 +8913,13 @@
         <v>0</v>
       </c>
       <c r="AE74">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="AF74">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="AG74" s="2">
-        <v>57.85762896420308</v>
+        <v>884.64043419267296</v>
       </c>
       <c r="AH74" s="1">
         <v>1</v>
@@ -8919,13 +8927,13 @@
     </row>
     <row r="75" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>11398</v>
+        <v>10584</v>
       </c>
       <c r="B75" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C75">
-        <v>74</v>
+        <v>59</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -8943,10 +8951,10 @@
         <v>0</v>
       </c>
       <c r="I75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J75">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K75">
         <v>0</v>
@@ -8955,7 +8963,7 @@
         <v>0</v>
       </c>
       <c r="M75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N75">
         <v>0</v>
@@ -8973,7 +8981,7 @@
         <v>0</v>
       </c>
       <c r="S75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T75">
         <v>0</v>
@@ -8982,13 +8990,13 @@
         <v>0</v>
       </c>
       <c r="V75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W75">
         <v>0</v>
       </c>
       <c r="X75">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y75">
         <v>0</v>
@@ -9000,7 +9008,7 @@
         <v>0</v>
       </c>
       <c r="AB75">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC75">
         <v>0</v>
@@ -9009,13 +9017,13 @@
         <v>0</v>
       </c>
       <c r="AE75">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AF75">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="AG75" s="2">
-        <v>51.730456840605918</v>
+        <v>256.48553727161516</v>
       </c>
       <c r="AH75" s="1">
         <v>1</v>
@@ -9023,19 +9031,19 @@
     </row>
     <row r="76" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>10568</v>
+        <v>14441</v>
       </c>
       <c r="B76" t="s">
-        <v>57</v>
+        <v>85</v>
       </c>
       <c r="C76">
-        <v>75</v>
+        <v>60</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F76">
         <v>0</v>
@@ -9050,7 +9058,7 @@
         <v>0</v>
       </c>
       <c r="J76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K76">
         <v>0</v>
@@ -9068,10 +9076,10 @@
         <v>0</v>
       </c>
       <c r="P76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q76">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R76">
         <v>0</v>
@@ -9080,7 +9088,7 @@
         <v>0</v>
       </c>
       <c r="T76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U76">
         <v>0</v>
@@ -9092,7 +9100,7 @@
         <v>0</v>
       </c>
       <c r="X76">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y76">
         <v>0</v>
@@ -9110,16 +9118,16 @@
         <v>0</v>
       </c>
       <c r="AD76">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE76">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF76">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="AG76" s="2">
-        <v>84.691228530221579</v>
+        <v>187.97268459240291</v>
       </c>
       <c r="AH76" s="1">
         <v>1</v>
@@ -9127,13 +9135,13 @@
     </row>
     <row r="77" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A77">
-        <v>11298</v>
+        <v>10579</v>
       </c>
       <c r="B77" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="C77">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -9148,7 +9156,7 @@
         <v>0</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77">
         <v>0</v>
@@ -9169,19 +9177,19 @@
         <v>0</v>
       </c>
       <c r="O77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P77">
         <v>0</v>
       </c>
       <c r="Q77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R77">
         <v>0</v>
       </c>
       <c r="S77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T77">
         <v>0</v>
@@ -9196,7 +9204,7 @@
         <v>0</v>
       </c>
       <c r="X77">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y77">
         <v>0</v>
@@ -9211,19 +9219,19 @@
         <v>0</v>
       </c>
       <c r="AC77">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD77">
         <v>0</v>
       </c>
       <c r="AE77">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF77">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AG77" s="2">
-        <v>162.93963519097048</v>
+        <v>76.775383280300844</v>
       </c>
       <c r="AH77" s="1">
         <v>1</v>
@@ -9231,22 +9239,22 @@
     </row>
     <row r="78" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>5500</v>
+        <v>5541</v>
       </c>
       <c r="B78" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="C78">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="D78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E78">
         <v>0</v>
       </c>
       <c r="F78">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G78">
         <v>0</v>
@@ -9267,7 +9275,7 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N78">
         <v>1</v>
@@ -9282,7 +9290,7 @@
         <v>0</v>
       </c>
       <c r="R78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S78">
         <v>0</v>
@@ -9291,7 +9299,7 @@
         <v>0</v>
       </c>
       <c r="U78">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V78">
         <v>0</v>
@@ -9303,7 +9311,7 @@
         <v>0</v>
       </c>
       <c r="Y78">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z78">
         <v>0</v>
@@ -9320,28 +9328,22 @@
       <c r="AD78">
         <v>0</v>
       </c>
-      <c r="AE78">
-        <v>4</v>
-      </c>
-      <c r="AF78">
-        <v>12</v>
-      </c>
       <c r="AG78" s="2">
-        <v>2478.1923076923076</v>
+        <v>81.16077812569344</v>
       </c>
       <c r="AH78" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A79">
-        <v>5547</v>
+        <v>14448</v>
       </c>
       <c r="B79" t="s">
-        <v>37</v>
+        <v>92</v>
       </c>
       <c r="C79">
-        <v>78</v>
+        <v>64</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -9374,7 +9376,7 @@
         <v>0</v>
       </c>
       <c r="N79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O79">
         <v>0</v>
@@ -9383,7 +9385,7 @@
         <v>0</v>
       </c>
       <c r="Q79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R79">
         <v>0</v>
@@ -9392,7 +9394,7 @@
         <v>0</v>
       </c>
       <c r="T79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U79">
         <v>0</v>
@@ -9404,7 +9406,7 @@
         <v>0</v>
       </c>
       <c r="X79">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y79">
         <v>0</v>
@@ -9419,27 +9421,33 @@
         <v>0</v>
       </c>
       <c r="AC79">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD79">
         <v>0</v>
       </c>
+      <c r="AE79">
+        <v>7</v>
+      </c>
+      <c r="AF79">
+        <v>13</v>
+      </c>
       <c r="AG79" s="2">
-        <v>1249.1744163977985</v>
+        <v>66.340901679439099</v>
       </c>
       <c r="AH79" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A80">
-        <v>5557</v>
+        <v>5483</v>
       </c>
       <c r="B80" t="s">
-        <v>42</v>
+        <v>3</v>
       </c>
       <c r="C80">
-        <v>79</v>
+        <v>65</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -9454,7 +9462,7 @@
         <v>0</v>
       </c>
       <c r="H80">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80">
         <v>0</v>
@@ -9478,41 +9486,41 @@
         <v>0</v>
       </c>
       <c r="P80">
+        <v>0</v>
+      </c>
+      <c r="Q80">
+        <v>1</v>
+      </c>
+      <c r="R80">
+        <v>0</v>
+      </c>
+      <c r="S80">
+        <v>0</v>
+      </c>
+      <c r="T80">
+        <v>0</v>
+      </c>
+      <c r="U80">
+        <v>0</v>
+      </c>
+      <c r="V80">
+        <v>0</v>
+      </c>
+      <c r="W80">
+        <v>1</v>
+      </c>
+      <c r="X80">
+        <v>0</v>
+      </c>
+      <c r="Y80">
+        <v>1</v>
+      </c>
+      <c r="Z80">
+        <v>0</v>
+      </c>
+      <c r="AA80">
         <v>2</v>
       </c>
-      <c r="Q80">
-        <v>0</v>
-      </c>
-      <c r="R80">
-        <v>0</v>
-      </c>
-      <c r="S80">
-        <v>0</v>
-      </c>
-      <c r="T80">
-        <v>0</v>
-      </c>
-      <c r="U80">
-        <v>1</v>
-      </c>
-      <c r="V80">
-        <v>0</v>
-      </c>
-      <c r="W80">
-        <v>0</v>
-      </c>
-      <c r="X80">
-        <v>0</v>
-      </c>
-      <c r="Y80">
-        <v>0</v>
-      </c>
-      <c r="Z80">
-        <v>0</v>
-      </c>
-      <c r="AA80">
-        <v>0</v>
-      </c>
       <c r="AB80">
         <v>0</v>
       </c>
@@ -9520,16 +9528,16 @@
         <v>0</v>
       </c>
       <c r="AD80">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AE80">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AF80">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AG80" s="2">
-        <v>103.99037848859437</v>
+        <v>74.255238358245023</v>
       </c>
       <c r="AH80" s="1">
         <v>1</v>
@@ -9537,16 +9545,16 @@
     </row>
     <row r="81" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>5569</v>
+        <v>10570</v>
       </c>
       <c r="B81" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="C81">
-        <v>80</v>
+        <v>67</v>
       </c>
       <c r="D81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E81">
         <v>0</v>
@@ -9564,7 +9572,7 @@
         <v>0</v>
       </c>
       <c r="J81">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="K81">
         <v>0</v>
@@ -9597,10 +9605,10 @@
         <v>0</v>
       </c>
       <c r="U81">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="V81">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W81">
         <v>0</v>
@@ -9618,36 +9626,36 @@
         <v>0</v>
       </c>
       <c r="AB81">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AC81">
         <v>0</v>
       </c>
       <c r="AD81">
+        <v>0</v>
+      </c>
+      <c r="AE81">
+        <v>2</v>
+      </c>
+      <c r="AF81">
         <v>5</v>
       </c>
-      <c r="AE81">
-        <v>3</v>
-      </c>
-      <c r="AF81">
-        <v>10</v>
-      </c>
       <c r="AG81" s="2">
-        <v>3640.5283867341213</v>
+        <v>51.737912218074285</v>
       </c>
       <c r="AH81" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>14762</v>
+        <v>10572</v>
       </c>
       <c r="B82" t="s">
-        <v>94</v>
+        <v>61</v>
       </c>
       <c r="C82">
-        <v>81</v>
+        <v>68</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -9662,7 +9670,7 @@
         <v>0</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82">
         <v>0</v>
@@ -9671,7 +9679,7 @@
         <v>0</v>
       </c>
       <c r="K82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L82">
         <v>0</v>
@@ -9686,10 +9694,10 @@
         <v>0</v>
       </c>
       <c r="P82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R82">
         <v>0</v>
@@ -9704,10 +9712,10 @@
         <v>0</v>
       </c>
       <c r="V82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W82">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X82">
         <v>0</v>
@@ -9722,7 +9730,7 @@
         <v>0</v>
       </c>
       <c r="AB82">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC82">
         <v>0</v>
@@ -9731,33 +9739,33 @@
         <v>0</v>
       </c>
       <c r="AE82">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="AF82">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="AG82" s="2">
-        <v>1480.659090909091</v>
+        <v>91.345402910898116</v>
       </c>
       <c r="AH82" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>14444</v>
+        <v>14764</v>
       </c>
       <c r="B83" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="C83">
-        <v>82</v>
+        <v>69</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F83">
         <v>0</v>
@@ -9769,16 +9777,16 @@
         <v>0</v>
       </c>
       <c r="I83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J83">
         <v>0</v>
       </c>
       <c r="K83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M83">
         <v>0</v>
@@ -9787,7 +9795,7 @@
         <v>0</v>
       </c>
       <c r="O83">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P83">
         <v>0</v>
@@ -9805,7 +9813,7 @@
         <v>0</v>
       </c>
       <c r="U83">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V83">
         <v>0</v>
@@ -9832,16 +9840,16 @@
         <v>0</v>
       </c>
       <c r="AD83">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AE83">
         <v>8</v>
       </c>
       <c r="AF83">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="AG83" s="2">
-        <v>110.3080831330026</v>
+        <v>108.13484120629838</v>
       </c>
       <c r="AH83" s="1">
         <v>1</v>
@@ -9849,14 +9857,14 @@
     </row>
     <row r="84" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>10816</v>
+        <v>10573</v>
       </c>
       <c r="B84" t="s">
+        <v>62</v>
+      </c>
+      <c r="C84">
         <v>70</v>
       </c>
-      <c r="C84">
-        <v>83</v>
-      </c>
       <c r="D84">
         <v>1</v>
       </c>
@@ -9864,16 +9872,16 @@
         <v>0</v>
       </c>
       <c r="F84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G84">
         <v>0</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J84">
         <v>0</v>
@@ -9885,13 +9893,13 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N84">
         <v>0</v>
       </c>
       <c r="O84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P84">
         <v>0</v>
@@ -9900,7 +9908,7 @@
         <v>0</v>
       </c>
       <c r="R84">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S84">
         <v>0</v>
@@ -9938,8 +9946,14 @@
       <c r="AD84">
         <v>0</v>
       </c>
+      <c r="AE84">
+        <v>5</v>
+      </c>
+      <c r="AF84">
+        <v>3</v>
+      </c>
       <c r="AG84" s="2">
-        <v>192.3913363783704</v>
+        <v>110.77965985929923</v>
       </c>
       <c r="AH84" s="1">
         <v>1</v>
@@ -9947,13 +9961,13 @@
     </row>
     <row r="85" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>10576</v>
+        <v>5514</v>
       </c>
       <c r="B85" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="C85">
-        <v>84</v>
+        <v>72</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -9962,7 +9976,7 @@
         <v>0</v>
       </c>
       <c r="F85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G85">
         <v>0</v>
@@ -9971,16 +9985,16 @@
         <v>0</v>
       </c>
       <c r="I85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J85">
         <v>0</v>
       </c>
       <c r="K85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="M85">
         <v>0</v>
@@ -10001,13 +10015,13 @@
         <v>0</v>
       </c>
       <c r="S85">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T85">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U85">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V85">
         <v>0</v>
@@ -10037,33 +10051,33 @@
         <v>0</v>
       </c>
       <c r="AE85">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="AF85">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="AG85" s="2">
-        <v>1932.0141760189015</v>
+        <v>726.66297731045938</v>
       </c>
       <c r="AH85" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>5521</v>
+        <v>10571</v>
       </c>
       <c r="B86" t="s">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="C86">
-        <v>85</v>
+        <v>73</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F86">
         <v>0</v>
@@ -10099,7 +10113,7 @@
         <v>0</v>
       </c>
       <c r="Q86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R86">
         <v>0</v>
@@ -10108,7 +10122,7 @@
         <v>0</v>
       </c>
       <c r="T86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U86">
         <v>0</v>
@@ -10117,7 +10131,7 @@
         <v>0</v>
       </c>
       <c r="W86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X86">
         <v>0</v>
@@ -10132,16 +10146,22 @@
         <v>0</v>
       </c>
       <c r="AB86">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC86">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD86">
         <v>0</v>
       </c>
+      <c r="AE86">
+        <v>6</v>
+      </c>
+      <c r="AF86">
+        <v>9</v>
+      </c>
       <c r="AG86" s="2">
-        <v>270.93761520501374</v>
+        <v>57.85762896420308</v>
       </c>
       <c r="AH86" s="1">
         <v>1</v>
@@ -10149,16 +10169,16 @@
     </row>
     <row r="87" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A87">
-        <v>5533</v>
+        <v>11398</v>
       </c>
       <c r="B87" t="s">
-        <v>29</v>
+        <v>76</v>
       </c>
       <c r="C87">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="D87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E87">
         <v>0</v>
@@ -10170,10 +10190,10 @@
         <v>0</v>
       </c>
       <c r="H87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J87">
         <v>0</v>
@@ -10194,16 +10214,16 @@
         <v>0</v>
       </c>
       <c r="P87">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="Q87">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R87">
         <v>0</v>
       </c>
       <c r="S87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T87">
         <v>0</v>
@@ -10230,7 +10250,7 @@
         <v>0</v>
       </c>
       <c r="AB87">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC87">
         <v>0</v>
@@ -10239,36 +10259,36 @@
         <v>0</v>
       </c>
       <c r="AE87">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF87">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG87" s="2">
-        <v>1709.4712525667351</v>
+        <v>51.730456840605918</v>
       </c>
       <c r="AH87" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>14436</v>
+        <v>10568</v>
       </c>
       <c r="B88" t="s">
-        <v>80</v>
+        <v>57</v>
       </c>
       <c r="C88">
-        <v>87</v>
+        <v>75</v>
       </c>
       <c r="D88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F88">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G88">
         <v>0</v>
@@ -10295,10 +10315,10 @@
         <v>0</v>
       </c>
       <c r="O88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q88">
         <v>0</v>
@@ -10310,7 +10330,7 @@
         <v>0</v>
       </c>
       <c r="T88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U88">
         <v>0</v>
@@ -10322,7 +10342,7 @@
         <v>0</v>
       </c>
       <c r="X88">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y88">
         <v>0</v>
@@ -10331,7 +10351,7 @@
         <v>0</v>
       </c>
       <c r="AA88">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB88">
         <v>0</v>
@@ -10343,27 +10363,27 @@
         <v>0</v>
       </c>
       <c r="AE88">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AF88">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AG88" s="2">
-        <v>2195.8404950154691</v>
+        <v>84.691228530221579</v>
       </c>
       <c r="AH88" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>5497</v>
+        <v>11298</v>
       </c>
       <c r="B89" t="s">
-        <v>8</v>
+        <v>72</v>
       </c>
       <c r="C89">
-        <v>88</v>
+        <v>76</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -10378,7 +10398,7 @@
         <v>0</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I89">
         <v>0</v>
@@ -10399,13 +10419,13 @@
         <v>0</v>
       </c>
       <c r="O89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P89">
         <v>0</v>
       </c>
       <c r="Q89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R89">
         <v>0</v>
@@ -10426,7 +10446,7 @@
         <v>0</v>
       </c>
       <c r="X89">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Y89">
         <v>0</v>
@@ -10444,10 +10464,16 @@
         <v>0</v>
       </c>
       <c r="AD89">
+        <v>0</v>
+      </c>
+      <c r="AE89">
         <v>9</v>
       </c>
+      <c r="AF89">
+        <v>5</v>
+      </c>
       <c r="AG89" s="2">
-        <v>660.68944963242598</v>
+        <v>162.93963519097048</v>
       </c>
       <c r="AH89" s="1">
         <v>1</v>
@@ -10455,13 +10481,13 @@
     </row>
     <row r="90" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>11395</v>
+        <v>5547</v>
       </c>
       <c r="B90" t="s">
-        <v>74</v>
+        <v>37</v>
       </c>
       <c r="C90">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -10500,7 +10526,7 @@
         <v>0</v>
       </c>
       <c r="P90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q90">
         <v>0</v>
@@ -10509,10 +10535,10 @@
         <v>0</v>
       </c>
       <c r="S90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="T90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U90">
         <v>0</v>
@@ -10530,28 +10556,22 @@
         <v>0</v>
       </c>
       <c r="Z90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA90">
         <v>0</v>
       </c>
       <c r="AB90">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC90">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD90">
         <v>0</v>
       </c>
-      <c r="AE90">
-        <v>9</v>
-      </c>
-      <c r="AF90">
-        <v>6</v>
-      </c>
       <c r="AG90" s="2">
-        <v>1816.413043478261</v>
+        <v>1249.1744163977985</v>
       </c>
       <c r="AH90" s="1">
         <v>0</v>
@@ -10559,13 +10579,13 @@
     </row>
     <row r="91" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A91">
-        <v>11396</v>
+        <v>5557</v>
       </c>
       <c r="B91" t="s">
-        <v>75</v>
+        <v>42</v>
       </c>
       <c r="C91">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -10580,7 +10600,7 @@
         <v>0</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I91">
         <v>0</v>
@@ -10589,7 +10609,7 @@
         <v>0</v>
       </c>
       <c r="K91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L91">
         <v>0</v>
@@ -10598,13 +10618,13 @@
         <v>0</v>
       </c>
       <c r="N91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O91">
         <v>0</v>
       </c>
       <c r="P91">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Q91">
         <v>0</v>
@@ -10619,10 +10639,10 @@
         <v>0</v>
       </c>
       <c r="U91">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="V91">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W91">
         <v>0</v>
@@ -10646,30 +10666,30 @@
         <v>0</v>
       </c>
       <c r="AD91">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AE91">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="AF91">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AG91" s="2">
-        <v>1455.2972143013817</v>
+        <v>103.99037848859437</v>
       </c>
       <c r="AH91" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A92">
-        <v>5567</v>
+        <v>14762</v>
       </c>
       <c r="B92" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
       <c r="C92">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -10687,13 +10707,13 @@
         <v>0</v>
       </c>
       <c r="I92">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="J92">
         <v>0</v>
       </c>
       <c r="K92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L92">
         <v>0</v>
@@ -10708,7 +10728,7 @@
         <v>0</v>
       </c>
       <c r="P92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q92">
         <v>0</v>
@@ -10720,7 +10740,7 @@
         <v>0</v>
       </c>
       <c r="T92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U92">
         <v>0</v>
@@ -10741,10 +10761,10 @@
         <v>0</v>
       </c>
       <c r="AA92">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB92">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC92">
         <v>0</v>
@@ -10753,33 +10773,33 @@
         <v>0</v>
       </c>
       <c r="AE92">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AF92">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AG92" s="2">
-        <v>786.98246032692998</v>
+        <v>1480.659090909091</v>
       </c>
       <c r="AH92" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>14440</v>
+        <v>14444</v>
       </c>
       <c r="B93" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="C93">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="D93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -10797,13 +10817,13 @@
         <v>0</v>
       </c>
       <c r="K93">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L93">
         <v>0</v>
       </c>
       <c r="M93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N93">
         <v>0</v>
@@ -10827,7 +10847,7 @@
         <v>0</v>
       </c>
       <c r="U93">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="V93">
         <v>0</v>
@@ -10848,36 +10868,36 @@
         <v>0</v>
       </c>
       <c r="AB93">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AC93">
         <v>0</v>
       </c>
       <c r="AD93">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AE93">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF93">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AG93" s="2">
-        <v>3271.7664092664095</v>
+        <v>110.3080831330026</v>
       </c>
       <c r="AH93" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A94">
-        <v>5565</v>
+        <v>10816</v>
       </c>
       <c r="B94" t="s">
-        <v>48</v>
+        <v>70</v>
       </c>
       <c r="C94">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -10886,7 +10906,7 @@
         <v>0</v>
       </c>
       <c r="F94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <v>0</v>
@@ -10907,13 +10927,13 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N94">
         <v>0</v>
       </c>
       <c r="O94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P94">
         <v>0</v>
@@ -10922,13 +10942,13 @@
         <v>0</v>
       </c>
       <c r="R94">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S94">
         <v>0</v>
       </c>
       <c r="T94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U94">
         <v>0</v>
@@ -10949,7 +10969,7 @@
         <v>0</v>
       </c>
       <c r="AA94">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AB94">
         <v>0</v>
@@ -10958,39 +10978,33 @@
         <v>0</v>
       </c>
       <c r="AD94">
-        <v>15</v>
-      </c>
-      <c r="AE94">
-        <v>6</v>
-      </c>
-      <c r="AF94">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AG94" s="2">
-        <v>2148.2701264138395</v>
+        <v>192.3913363783704</v>
       </c>
       <c r="AH94" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>5543</v>
+        <v>10576</v>
       </c>
       <c r="B95" t="s">
-        <v>34</v>
+        <v>65</v>
       </c>
       <c r="C95">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="D95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E95">
         <v>0</v>
       </c>
       <c r="F95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G95">
         <v>0</v>
@@ -11005,10 +11019,10 @@
         <v>0</v>
       </c>
       <c r="K95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="M95">
         <v>0</v>
@@ -11026,10 +11040,10 @@
         <v>0</v>
       </c>
       <c r="R95">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S95">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T95">
         <v>0</v>
@@ -11038,7 +11052,7 @@
         <v>0</v>
       </c>
       <c r="V95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="W95">
         <v>0</v>
@@ -11059,19 +11073,19 @@
         <v>0</v>
       </c>
       <c r="AC95">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AD95">
         <v>0</v>
       </c>
       <c r="AE95">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF95">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="AG95" s="2">
-        <v>3888.6512180629838</v>
+        <v>1932.0141760189015</v>
       </c>
       <c r="AH95" s="1">
         <v>0</v>
@@ -11079,16 +11093,16 @@
     </row>
     <row r="96" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A96">
-        <v>5556</v>
+        <v>5521</v>
       </c>
       <c r="B96" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C96">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="D96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E96">
         <v>0</v>
@@ -11106,28 +11120,28 @@
         <v>0</v>
       </c>
       <c r="J96">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="K96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L96">
         <v>0</v>
       </c>
       <c r="M96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N96">
         <v>0</v>
       </c>
       <c r="O96">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="P96">
         <v>0</v>
       </c>
       <c r="Q96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R96">
         <v>0</v>
@@ -11163,36 +11177,30 @@
         <v>0</v>
       </c>
       <c r="AC96">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AD96">
-        <v>4</v>
-      </c>
-      <c r="AE96">
-        <v>5</v>
-      </c>
-      <c r="AF96">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="AG96" s="2">
-        <v>2822.6678291194416</v>
+        <v>270.93761520501374</v>
       </c>
       <c r="AH96" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>5566</v>
+        <v>5497</v>
       </c>
       <c r="B97" t="s">
-        <v>49</v>
+        <v>8</v>
       </c>
       <c r="C97">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="D97">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E97">
         <v>0</v>
@@ -11240,7 +11248,7 @@
         <v>0</v>
       </c>
       <c r="T97">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U97">
         <v>0</v>
@@ -11267,36 +11275,30 @@
         <v>0</v>
       </c>
       <c r="AC97">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AD97">
-        <v>0</v>
-      </c>
-      <c r="AE97">
-        <v>2</v>
-      </c>
-      <c r="AF97">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG97" s="2">
-        <v>3396.2848297213632</v>
+        <v>660.68944963242598</v>
       </c>
       <c r="AH97" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>14442</v>
+        <v>11395</v>
       </c>
       <c r="B98" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="C98">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="D98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E98">
         <v>0</v>
@@ -11326,22 +11328,22 @@
         <v>0</v>
       </c>
       <c r="N98">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O98">
         <v>0</v>
       </c>
       <c r="P98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q98">
         <v>0</v>
       </c>
       <c r="R98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="S98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="T98">
         <v>0</v>
@@ -11356,19 +11358,19 @@
         <v>0</v>
       </c>
       <c r="X98">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y98">
         <v>0</v>
       </c>
       <c r="Z98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AA98">
         <v>0</v>
       </c>
       <c r="AB98">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AC98">
         <v>0</v>
@@ -11377,13 +11379,13 @@
         <v>0</v>
       </c>
       <c r="AE98">
+        <v>9</v>
+      </c>
+      <c r="AF98">
         <v>6</v>
       </c>
-      <c r="AF98">
-        <v>12</v>
-      </c>
       <c r="AG98" s="2">
-        <v>2358.7956204379561</v>
+        <v>1816.413043478261</v>
       </c>
       <c r="AH98" s="1">
         <v>0</v>
@@ -11391,22 +11393,22 @@
     </row>
     <row r="99" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>14446</v>
+        <v>11396</v>
       </c>
       <c r="B99" t="s">
+        <v>75</v>
+      </c>
+      <c r="C99">
         <v>90</v>
       </c>
-      <c r="C99">
-        <v>98</v>
-      </c>
       <c r="D99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E99">
         <v>0</v>
       </c>
       <c r="F99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G99">
         <v>0</v>
@@ -11421,7 +11423,7 @@
         <v>0</v>
       </c>
       <c r="K99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="L99">
         <v>0</v>
@@ -11448,19 +11450,19 @@
         <v>0</v>
       </c>
       <c r="T99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="U99">
         <v>0</v>
       </c>
       <c r="V99">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="W99">
         <v>0</v>
       </c>
       <c r="X99">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y99">
         <v>0</v>
@@ -11478,16 +11480,16 @@
         <v>0</v>
       </c>
       <c r="AD99">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="AE99">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF99">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="AG99" s="2">
-        <v>3231.1817279046672</v>
+        <v>1455.2972143013817</v>
       </c>
       <c r="AH99" s="1">
         <v>0</v>
@@ -11495,16 +11497,16 @@
     </row>
     <row r="100" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>5518</v>
+        <v>5567</v>
       </c>
       <c r="B100" t="s">
-        <v>21</v>
+        <v>50</v>
       </c>
       <c r="C100">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="D100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E100">
         <v>0</v>
@@ -11519,7 +11521,7 @@
         <v>0</v>
       </c>
       <c r="I100">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J100">
         <v>0</v>
@@ -11531,7 +11533,7 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N100">
         <v>0</v>
@@ -11552,7 +11554,7 @@
         <v>0</v>
       </c>
       <c r="T100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U100">
         <v>0</v>
@@ -11564,16 +11566,16 @@
         <v>0</v>
       </c>
       <c r="X100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Y100">
         <v>0</v>
       </c>
       <c r="Z100">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AA100">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB100">
         <v>0</v>
@@ -11585,30 +11587,30 @@
         <v>0</v>
       </c>
       <c r="AE100">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AF100">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="AG100" s="2">
-        <v>3217.4737893160259</v>
+        <v>786.98246032692998</v>
       </c>
       <c r="AH100" s="1">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A101">
-        <v>14191</v>
+        <v>5565</v>
       </c>
       <c r="B101" t="s">
-        <v>78</v>
+        <v>48</v>
       </c>
       <c r="C101">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E101">
         <v>0</v>
@@ -11629,13 +11631,13 @@
         <v>0</v>
       </c>
       <c r="K101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L101">
         <v>0</v>
       </c>
       <c r="M101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N101">
         <v>0</v>
@@ -11656,13 +11658,13 @@
         <v>0</v>
       </c>
       <c r="T101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U101">
         <v>0</v>
       </c>
       <c r="V101">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="W101">
         <v>0</v>
@@ -11677,34 +11679,33 @@
         <v>0</v>
       </c>
       <c r="AA101">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AB101">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="AC101">
         <v>0</v>
       </c>
       <c r="AD101">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="AE101">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AF101">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="AG101" s="2">
-        <v>4090.1774397972126</v>
+        <v>2148.2701264138395</v>
       </c>
       <c r="AH101" s="1">
         <v>0</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:AF101">
-    <sortCondition ref="C2:C101"/>
-    <sortCondition ref="A2:A101"/>
+  <sortState ref="A2:AH101">
+    <sortCondition ref="D2:D101"/>
   </sortState>
   <conditionalFormatting sqref="D1:D1048576">
     <cfRule type="colorScale" priority="3">
